--- a/src/main/resources/TestSpec.xlsx
+++ b/src/main/resources/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAD369-6867-C246-8D46-4B6D8C26D3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0563CE8-748D-0D40-ADE4-F24DE0AAE869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24380" yWindow="3900" windowWidth="39920" windowHeight="28500" activeTab="2" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>

--- a/src/main/resources/TestSpec.xlsx
+++ b/src/main/resources/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0563CE8-748D-0D40-ADE4-F24DE0AAE869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03972674-FB70-0C41-A54E-384204242961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24380" yWindow="3900" windowWidth="39920" windowHeight="28500" activeTab="2" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>

--- a/src/main/resources/TestSpec.xlsx
+++ b/src/main/resources/TestSpec.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03972674-FB70-0C41-A54E-384204242961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259549DE-A631-6647-8012-A6B52A2D31E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24380" yWindow="3900" windowWidth="39920" windowHeight="28500" activeTab="2" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
+    <workbookView xWindow="31960" yWindow="5300" windowWidth="39920" windowHeight="28500" activeTab="3" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandList" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="TestSpec" sheetId="3" r:id="rId3"/>
-    <sheet name="List" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Template" sheetId="5" r:id="rId3"/>
+    <sheet name="TestSpec" sheetId="3" r:id="rId4"/>
+    <sheet name="List" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="実施結果">List!$A$3:$A$12</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -388,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1068,57 @@
     <xf numFmtId="49" fontId="11" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,7 +1127,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -1115,14 +1173,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFA0D8EF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1136,7 +1194,120 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0D8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE82EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1157,182 +1328,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFEE82EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1353,30 +1349,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1389,9 +1361,35 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1406,101 +1404,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -1509,68 +1412,6 @@
       <font>
         <b/>
         <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1971,8 +1812,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22">
-      <c r="A1" s="102"/>
-      <c r="B1" s="102"/>
+      <c r="A1" s="119"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="13" t="s">
         <v>40</v>
       </c>
@@ -6474,78 +6315,13 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="74" priority="15" operator="greaterThan">
+  <conditionalFormatting sqref="D4:O104">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 F4:G104 K4:O104">
-    <cfRule type="cellIs" dxfId="73" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="72" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="69" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G104">
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D104">
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E104">
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J104">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H104">
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H104">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I104">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="G4:H104">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6554,14 +6330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641B8779-49CC-7C41-8244-DBC27C6FCB57}">
-  <dimension ref="A1:S1009"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5517B1B6-F75C-9849-81BE-13D42D1EB82F}">
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -6587,9 +6363,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="22">
-      <c r="A1" s="102"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
+      <c r="A1" s="119"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="93"/>
@@ -6801,7 +6577,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="43">
-        <f t="shared" ref="A10:A73" si="0">ROW()-9</f>
+        <f t="shared" ref="A10:A19" si="0">ROW()-9</f>
         <v>1</v>
       </c>
       <c r="B10" s="44"/>
@@ -6850,6 +6626,567 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="43">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="43">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="43">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="51">
+      <formula>LEN(TRIM(E1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G19">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",G13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",G13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="cellIs" dxfId="33" priority="49" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+      <formula>"手動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I19">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+      <formula>"手動"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J19">
+    <cfRule type="containsText" dxfId="30" priority="9" stopIfTrue="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="10" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="8" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"削除予定"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"実施対象外"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"未実施"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"保留"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J19" xr:uid="{1560CB35-642B-4243-BC7E-84F2E510B678}">
+      <formula1>実施結果</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G19 G11" xr:uid="{DD8963A1-EF3E-1941-81DF-E83E95667E82}">
+      <formula1>"iOS,Android"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641B8779-49CC-7C41-8244-DBC27C6FCB57}">
+  <dimension ref="A1:S1009"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="9" style="24" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="25" customWidth="1"/>
+    <col min="13" max="14" width="8.140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="25" customWidth="1"/>
+    <col min="16" max="17" width="8.140625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" style="26" customWidth="1"/>
+    <col min="19" max="20" width="8" style="20" customWidth="1"/>
+    <col min="21" max="16384" width="6.28515625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="22">
+      <c r="A1" s="119"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="17" customHeight="1" outlineLevel="1">
+      <c r="C2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:19" ht="14" customHeight="1" outlineLevel="1">
+      <c r="C3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" ht="14" customHeight="1" outlineLevel="1">
+      <c r="C4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" ht="14" customHeight="1" outlineLevel="1">
+      <c r="C5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" ht="14" customHeight="1" outlineLevel="1">
+      <c r="C6" s="32"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" ht="14" customHeight="1">
+      <c r="C7" s="32"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="J7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="38">
+        <f>SUM(H4,H5,H6,K3,K4,K5,K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" ht="14" customHeight="1">
+      <c r="C8" s="32"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" ht="36.75" customHeight="1">
+      <c r="A9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="43">
+        <f t="shared" ref="A10:A73" si="0">ROW()-9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="B12" s="47"/>
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
@@ -29804,124 +30141,59 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I11 I13 I15 I17 I19 I21 I23 I25 I27 I29 I31 I33 I35 I37 I39 I41 I43 I45 I47 I49 I51 I53 I55 I99 I143 I187 I231 I275 I319 I363 I407 I451 I495 I57 I101 I145 I189 I233 I277 I321 I365 I409 I453 I497 I59 I103 I147 I191 I235 I279 I323 I367 I411 I455 I499 I61 I105 I149 I193 I237 I281 I325 I369 I413 I457 I501 I63 I107 I151 I195 I239 I283 I327 I371 I415 I459 I65 I109 I153 I197 I241 I285 I329 I373 I417 I461 I67 I111 I155 I199 I243 I287 I331 I375 I419 I463 I69 I113 I157 I201 I245 I289 I333 I377 I421 I465 I71 I115 I159 I203 I247 I291 I335 I379 I423 I467 I73 I117 I161 I205 I249 I293 I337 I381 I425 I469 I75 I119 I163 I207 I251 I295 I339 I383 I427 I471 I77 I121 I165 I209 I253 I297 I341 I385 I429 I473 I79 I123 I167 I211 I255 I299 I343 I387 I431 I475 I81 I125 I169 I213 I257 I301 I345 I389 I433 I477 I83 I127 I171 I215 I259 I303 I347 I391 I435 I479 I85 I129 I173 I217 I261 I305 I349 I393 I437 I481 I87 I131 I175 I219 I263 I307 I351 I395 I439 I483 I89 I133 I177 I221 I265 I309 I353 I397 I441 I485 I91 I135 I179 I223 I267 I311 I355 I399 I443 I487 I93 I137 I181 I225 I269 I313 I357 I401 I445 I489 I95 I139 I183 I227 I271 I315 I359 I403 I447 I491 I97 I141 I185 I229 I273 I317 I361 I405 I449 I493 I503 I505 I507 I509">
-    <cfRule type="cellIs" dxfId="59" priority="40" operator="equal">
+  <conditionalFormatting sqref="E1">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="51">
+      <formula>LEN(TRIM(E1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G1009">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="cellIs" dxfId="17" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I1009">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 I14 I16 I18 I20 I22 I24 I26 I28 I30 I32 I34 I36 I38 I40 I42 I44 I46 I48 I50 I52 I54 I56 I100 I144 I188 I232 I276 I320 I364 I408 I452 I496 I58 I102 I146 I190 I234 I278 I322 I366 I410 I454 I498 I60 I104 I148 I192 I236 I280 I324 I368 I412 I456 I500 I62 I106 I150 I194 I238 I282 I326 I370 I414 I458 I502 I64 I108 I152 I196 I240 I284 I328 I372 I416 I460 I66 I110 I154 I198 I242 I286 I330 I374 I418 I462 I68 I112 I156 I200 I244 I288 I332 I376 I420 I464 I70 I114 I158 I202 I246 I290 I334 I378 I422 I466 I72 I116 I160 I204 I248 I292 I336 I380 I424 I468 I74 I118 I162 I206 I250 I294 I338 I382 I426 I470 I76 I120 I164 I208 I252 I296 I340 I384 I428 I472 I78 I122 I166 I210 I254 I298 I342 I386 I430 I474 I80 I124 I168 I212 I256 I300 I344 I388 I432 I476 I82 I126 I170 I214 I258 I302 I346 I390 I434 I478 I84 I128 I172 I216 I260 I304 I348 I392 I436 I480 I86 I130 I174 I218 I262 I306 I350 I394 I438 I482 I88 I132 I176 I220 I264 I308 I352 I396 I440 I484 I90 I134 I178 I222 I266 I310 I354 I398 I442 I486 I92 I136 I180 I224 I268 I312 I356 I400 I444 I488 I94 I138 I182 I226 I270 I314 I358 I402 I446 I490 I96 I140 I184 I228 I272 I316 I360 I404 I448 I492 I98 I142 I186 I230 I274 I318 I362 I406 I450 I494 I504 I506 I508">
-    <cfRule type="cellIs" dxfId="58" priority="39" operator="equal">
-      <formula>"手動"</formula>
+  <conditionalFormatting sqref="J10:J1009">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"実施対象外"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
-    <cfRule type="cellIs" dxfId="57" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"削除予定"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="8" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="9" stopIfTrue="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="36" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="37" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="38" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
-    <cfRule type="cellIs" dxfId="53" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="31" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="34" stopIfTrue="1" operator="equal">
-      <formula>"実施対象外"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"削除予定"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
-    <cfRule type="cellIs" dxfId="48" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="28">
-      <formula>LEN(TRIM(E1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I511 I513 I515 I517 I519 I521 I523 I525 I527 I529 I531 I533 I535 I537 I539 I541 I543 I545 I547 I549 I551 I553 I555 I599 I643 I687 I731 I775 I819 I863 I907 I951 I995 I557 I601 I645 I689 I733 I777 I821 I865 I909 I953 I997 I559 I603 I647 I691 I735 I779 I823 I867 I911 I955 I999 I561 I605 I649 I693 I737 I781 I825 I869 I913 I957 I1001 I563 I607 I651 I695 I739 I783 I827 I871 I915 I959 I565 I609 I653 I697 I741 I785 I829 I873 I917 I961 I567 I611 I655 I699 I743 I787 I831 I875 I919 I963 I569 I613 I657 I701 I745 I789 I833 I877 I921 I965 I571 I615 I659 I703 I747 I791 I835 I879 I923 I967 I573 I617 I661 I705 I749 I793 I837 I881 I925 I969 I575 I619 I663 I707 I751 I795 I839 I883 I927 I971 I577 I621 I665 I709 I753 I797 I841 I885 I929 I973 I579 I623 I667 I711 I755 I799 I843 I887 I931 I975 I581 I625 I669 I713 I757 I801 I845 I889 I933 I977 I583 I627 I671 I715 I759 I803 I847 I891 I935 I979 I585 I629 I673 I717 I761 I805 I849 I893 I937 I981 I587 I631 I675 I719 I763 I807 I851 I895 I939 I983 I589 I633 I677 I721 I765 I809 I853 I897 I941 I985 I591 I635 I679 I723 I767 I811 I855 I899 I943 I987 I593 I637 I681 I725 I769 I813 I857 I901 I945 I989 I595 I639 I683 I727 I771 I815 I859 I903 I947 I991 I597 I641 I685 I729 I773 I817 I861 I905 I949 I993 I1003 I1005 I1007 I1009">
-    <cfRule type="cellIs" dxfId="46" priority="27" operator="equal">
-      <formula>"手動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I512 I514 I516 I518 I520 I522 I524 I526 I528 I530 I532 I534 I536 I538 I540 I542 I544 I546 I548 I550 I552 I554 I556 I600 I644 I688 I732 I776 I820 I864 I908 I952 I996 I558 I602 I646 I690 I734 I778 I822 I866 I910 I954 I998 I560 I604 I648 I692 I736 I780 I824 I868 I912 I956 I1000 I562 I606 I650 I694 I738 I782 I826 I870 I914 I958 I1002 I564 I608 I652 I696 I740 I784 I828 I872 I916 I960 I566 I610 I654 I698 I742 I786 I830 I874 I918 I962 I568 I612 I656 I700 I744 I788 I832 I876 I920 I964 I570 I614 I658 I702 I746 I790 I834 I878 I922 I966 I572 I616 I660 I704 I748 I792 I836 I880 I924 I968 I574 I618 I662 I706 I750 I794 I838 I882 I926 I970 I576 I620 I664 I708 I752 I796 I840 I884 I928 I972 I578 I622 I666 I710 I754 I798 I842 I886 I930 I974 I580 I624 I668 I712 I756 I800 I844 I888 I932 I976 I582 I626 I670 I714 I758 I802 I846 I890 I934 I978 I584 I628 I672 I716 I760 I804 I848 I892 I936 I980 I586 I630 I674 I718 I762 I806 I850 I894 I938 I982 I588 I632 I676 I720 I764 I808 I852 I896 I940 I984 I590 I634 I678 I722 I766 I810 I854 I898 I942 I986 I592 I636 I680 I724 I768 I812 I856 I900 I944 I988 I594 I638 I682 I726 I770 I814 I858 I902 I946 I990 I596 I640 I684 I728 I772 I816 I860 I904 I948 I992 I598 I642 I686 I730 I774 I818 I862 I906 I950 I994 I1004 I1006 I1008">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
-      <formula>"手動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I510">
-    <cfRule type="cellIs" dxfId="44" priority="25" operator="equal">
-      <formula>"手動"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J1009">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"未実施"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="10" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="11" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="12" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J1009">
-    <cfRule type="cellIs" dxfId="37" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"実施対象外"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"削除予定"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J1009">
-    <cfRule type="cellIs" dxfId="32" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G1009">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -29936,7 +30208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC8D3DF-4B4C-6241-B3EE-09F2029151AE}">
   <dimension ref="A2:B22"/>
   <sheetViews>
@@ -30037,87 +30309,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:A8">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
-      <formula>"削除予定"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>"実施対象外"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
-      <formula>"未実施"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>"削除予定"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"実施対象外"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
-      <formula>"未実施"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>"削除予定"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>"実施対象外"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"未実施"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>"削除予定"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>"実施対象外"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>"未実施"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A3:A12">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>

--- a/src/main/resources/TestSpec.xlsx
+++ b/src/main/resources/TestSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259549DE-A631-6647-8012-A6B52A2D31E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91ED854-93B7-FC4B-8130-78368A8F39B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31960" yWindow="5300" windowWidth="39920" windowHeight="28500" activeTab="3" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21160" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandList" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="List" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="実施結果">List!$A$3:$A$12</definedName>
+    <definedName name="実施結果">List!$A$3:$A$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>A+M</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Automated</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -266,6 +262,22 @@
   </si>
   <si>
     <t>Platform Version</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>COND_AUTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COND_AUTO</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>A+CA+M</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1127,7 +1139,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -1173,7 +1185,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFBDD7EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1181,34 +1193,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1243,6 +1227,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1255,14 +1274,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1273,6 +1292,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0D8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0D8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE82EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1300,13 +1354,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1314,35 +1361,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1368,14 +1387,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1416,6 +1435,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBDD7EE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1428,9 +1452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1468,7 +1492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1574,7 +1598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1716,7 +1740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1750,16 +1774,16 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="A3" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="C3" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="D3" s="95" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>51</v>
       </c>
       <c r="E3" s="95" t="s">
         <v>11</v>
@@ -1768,22 +1792,22 @@
         <v>14</v>
       </c>
       <c r="G3" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="I3" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="J3" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="K3" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="95" t="s">
+      <c r="L3" s="95" t="s">
         <v>56</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1794,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92274D22-EDA0-BF40-BFA2-FCB7B06DA8AB}">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.42578125" defaultRowHeight="15"/>
@@ -1805,21 +1829,21 @@
     <col min="1" max="1" width="4.5703125" style="58" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="58" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="58" customWidth="1"/>
-    <col min="4" max="12" width="8.28515625" style="58" customWidth="1"/>
-    <col min="13" max="15" width="6.42578125" style="58"/>
-    <col min="16" max="16" width="9.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="6.42578125" style="58"/>
+    <col min="4" max="13" width="8.28515625" style="58" customWidth="1"/>
+    <col min="14" max="17" width="7.42578125" style="58" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="6.42578125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22">
+    <row r="1" spans="1:18" ht="22">
       <c r="A1" s="119"/>
       <c r="B1" s="119"/>
       <c r="C1" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1"/>
-    <row r="3" spans="1:16" ht="16" customHeight="1" thickBot="1">
+    <row r="2" spans="1:18" ht="16" thickBot="1"/>
+    <row r="3" spans="1:18" ht="16" customHeight="1" thickBot="1">
       <c r="D3" s="59" t="s">
         <v>41</v>
       </c>
@@ -1839,33 +1863,39 @@
         <v>4</v>
       </c>
       <c r="J3" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="L3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="M3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="N3" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="O3" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="Q3" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="66" t="s">
+    </row>
+    <row r="4" spans="1:18" s="79" customFormat="1" ht="16" thickBot="1">
+      <c r="A4" s="67" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="79" customFormat="1" ht="16" thickBot="1">
-      <c r="A4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>17</v>
@@ -1891,13 +1921,13 @@
       <c r="J4" s="75">
         <v>0</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="75">
         <v>0</v>
       </c>
       <c r="L4" s="76">
         <v>0</v>
       </c>
-      <c r="M4" s="77">
+      <c r="M4" s="76">
         <v>0</v>
       </c>
       <c r="N4" s="77">
@@ -1906,11 +1936,17 @@
       <c r="O4" s="77">
         <v>0</v>
       </c>
-      <c r="P4" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16" thickTop="1">
+      <c r="P4" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="77">
+        <v>0</v>
+      </c>
+      <c r="R4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" thickTop="1">
       <c r="A5" s="80"/>
       <c r="B5" s="81"/>
       <c r="C5" s="82"/>
@@ -1935,13 +1971,13 @@
       <c r="J5" s="89">
         <v>0</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="89">
         <v>0</v>
       </c>
       <c r="L5" s="90">
         <v>0</v>
       </c>
-      <c r="M5" s="91">
+      <c r="M5" s="90">
         <v>0</v>
       </c>
       <c r="N5" s="91">
@@ -1950,11 +1986,17 @@
       <c r="O5" s="91">
         <v>0</v>
       </c>
-      <c r="P5" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="91">
+        <v>0</v>
+      </c>
+      <c r="R5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="80"/>
       <c r="B6" s="81"/>
       <c r="C6" s="82"/>
@@ -1979,13 +2021,13 @@
       <c r="J6" s="89">
         <v>0</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="89">
         <v>0</v>
       </c>
       <c r="L6" s="90">
         <v>0</v>
       </c>
-      <c r="M6" s="91">
+      <c r="M6" s="90">
         <v>0</v>
       </c>
       <c r="N6" s="91">
@@ -1994,11 +2036,17 @@
       <c r="O6" s="91">
         <v>0</v>
       </c>
-      <c r="P6" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="91">
+        <v>0</v>
+      </c>
+      <c r="R6" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="80"/>
       <c r="B7" s="81"/>
       <c r="C7" s="82"/>
@@ -2023,13 +2071,13 @@
       <c r="J7" s="89">
         <v>0</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="89">
         <v>0</v>
       </c>
       <c r="L7" s="90">
         <v>0</v>
       </c>
-      <c r="M7" s="91">
+      <c r="M7" s="90">
         <v>0</v>
       </c>
       <c r="N7" s="91">
@@ -2038,11 +2086,17 @@
       <c r="O7" s="91">
         <v>0</v>
       </c>
-      <c r="P7" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="91">
+        <v>0</v>
+      </c>
+      <c r="R7" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="80"/>
       <c r="B8" s="81"/>
       <c r="C8" s="82"/>
@@ -2067,13 +2121,13 @@
       <c r="J8" s="89">
         <v>0</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="89">
         <v>0</v>
       </c>
       <c r="L8" s="90">
         <v>0</v>
       </c>
-      <c r="M8" s="91">
+      <c r="M8" s="90">
         <v>0</v>
       </c>
       <c r="N8" s="91">
@@ -2082,11 +2136,17 @@
       <c r="O8" s="91">
         <v>0</v>
       </c>
-      <c r="P8" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="91">
+        <v>0</v>
+      </c>
+      <c r="R8" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="80"/>
       <c r="B9" s="81"/>
       <c r="C9" s="82"/>
@@ -2111,13 +2171,13 @@
       <c r="J9" s="89">
         <v>0</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="89">
         <v>0</v>
       </c>
       <c r="L9" s="90">
         <v>0</v>
       </c>
-      <c r="M9" s="91">
+      <c r="M9" s="90">
         <v>0</v>
       </c>
       <c r="N9" s="91">
@@ -2126,11 +2186,17 @@
       <c r="O9" s="91">
         <v>0</v>
       </c>
-      <c r="P9" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="91">
+        <v>0</v>
+      </c>
+      <c r="R9" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="80"/>
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
@@ -2155,13 +2221,13 @@
       <c r="J10" s="89">
         <v>0</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="89">
         <v>0</v>
       </c>
       <c r="L10" s="90">
         <v>0</v>
       </c>
-      <c r="M10" s="91">
+      <c r="M10" s="90">
         <v>0</v>
       </c>
       <c r="N10" s="91">
@@ -2170,11 +2236,17 @@
       <c r="O10" s="91">
         <v>0</v>
       </c>
-      <c r="P10" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="91">
+        <v>0</v>
+      </c>
+      <c r="R10" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
       <c r="C11" s="82"/>
@@ -2199,13 +2271,13 @@
       <c r="J11" s="89">
         <v>0</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="89">
         <v>0</v>
       </c>
       <c r="L11" s="90">
         <v>0</v>
       </c>
-      <c r="M11" s="91">
+      <c r="M11" s="90">
         <v>0</v>
       </c>
       <c r="N11" s="91">
@@ -2214,11 +2286,17 @@
       <c r="O11" s="91">
         <v>0</v>
       </c>
-      <c r="P11" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="91">
+        <v>0</v>
+      </c>
+      <c r="R11" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="80"/>
       <c r="B12" s="81"/>
       <c r="C12" s="82"/>
@@ -2243,13 +2321,13 @@
       <c r="J12" s="89">
         <v>0</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="89">
         <v>0</v>
       </c>
       <c r="L12" s="90">
         <v>0</v>
       </c>
-      <c r="M12" s="91">
+      <c r="M12" s="90">
         <v>0</v>
       </c>
       <c r="N12" s="91">
@@ -2258,11 +2336,17 @@
       <c r="O12" s="91">
         <v>0</v>
       </c>
-      <c r="P12" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="91">
+        <v>0</v>
+      </c>
+      <c r="R12" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="80"/>
       <c r="B13" s="81"/>
       <c r="C13" s="82"/>
@@ -2287,13 +2371,13 @@
       <c r="J13" s="89">
         <v>0</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="89">
         <v>0</v>
       </c>
       <c r="L13" s="90">
         <v>0</v>
       </c>
-      <c r="M13" s="91">
+      <c r="M13" s="90">
         <v>0</v>
       </c>
       <c r="N13" s="91">
@@ -2302,11 +2386,17 @@
       <c r="O13" s="91">
         <v>0</v>
       </c>
-      <c r="P13" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="91">
+        <v>0</v>
+      </c>
+      <c r="R13" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="80"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
@@ -2331,13 +2421,13 @@
       <c r="J14" s="89">
         <v>0</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="89">
         <v>0</v>
       </c>
       <c r="L14" s="90">
         <v>0</v>
       </c>
-      <c r="M14" s="91">
+      <c r="M14" s="90">
         <v>0</v>
       </c>
       <c r="N14" s="91">
@@ -2346,11 +2436,17 @@
       <c r="O14" s="91">
         <v>0</v>
       </c>
-      <c r="P14" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="91">
+        <v>0</v>
+      </c>
+      <c r="R14" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
@@ -2375,13 +2471,13 @@
       <c r="J15" s="89">
         <v>0</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="89">
         <v>0</v>
       </c>
       <c r="L15" s="90">
         <v>0</v>
       </c>
-      <c r="M15" s="91">
+      <c r="M15" s="90">
         <v>0</v>
       </c>
       <c r="N15" s="91">
@@ -2390,11 +2486,17 @@
       <c r="O15" s="91">
         <v>0</v>
       </c>
-      <c r="P15" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="91">
+        <v>0</v>
+      </c>
+      <c r="R15" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
@@ -2419,13 +2521,13 @@
       <c r="J16" s="89">
         <v>0</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="89">
         <v>0</v>
       </c>
       <c r="L16" s="90">
         <v>0</v>
       </c>
-      <c r="M16" s="91">
+      <c r="M16" s="90">
         <v>0</v>
       </c>
       <c r="N16" s="91">
@@ -2434,11 +2536,17 @@
       <c r="O16" s="91">
         <v>0</v>
       </c>
-      <c r="P16" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="P16" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="91">
+        <v>0</v>
+      </c>
+      <c r="R16" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="80"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
@@ -2463,13 +2571,13 @@
       <c r="J17" s="89">
         <v>0</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="89">
         <v>0</v>
       </c>
       <c r="L17" s="90">
         <v>0</v>
       </c>
-      <c r="M17" s="91">
+      <c r="M17" s="90">
         <v>0</v>
       </c>
       <c r="N17" s="91">
@@ -2478,11 +2586,17 @@
       <c r="O17" s="91">
         <v>0</v>
       </c>
-      <c r="P17" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="P17" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="91">
+        <v>0</v>
+      </c>
+      <c r="R17" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="80"/>
       <c r="B18" s="81"/>
       <c r="C18" s="82"/>
@@ -2507,13 +2621,13 @@
       <c r="J18" s="89">
         <v>0</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="89">
         <v>0</v>
       </c>
       <c r="L18" s="90">
         <v>0</v>
       </c>
-      <c r="M18" s="91">
+      <c r="M18" s="90">
         <v>0</v>
       </c>
       <c r="N18" s="91">
@@ -2522,11 +2636,17 @@
       <c r="O18" s="91">
         <v>0</v>
       </c>
-      <c r="P18" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="P18" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="91">
+        <v>0</v>
+      </c>
+      <c r="R18" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="80"/>
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
@@ -2551,13 +2671,13 @@
       <c r="J19" s="89">
         <v>0</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="89">
         <v>0</v>
       </c>
       <c r="L19" s="90">
         <v>0</v>
       </c>
-      <c r="M19" s="91">
+      <c r="M19" s="90">
         <v>0</v>
       </c>
       <c r="N19" s="91">
@@ -2566,11 +2686,17 @@
       <c r="O19" s="91">
         <v>0</v>
       </c>
-      <c r="P19" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="91">
+        <v>0</v>
+      </c>
+      <c r="R19" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="80"/>
       <c r="B20" s="81"/>
       <c r="C20" s="82"/>
@@ -2595,13 +2721,13 @@
       <c r="J20" s="89">
         <v>0</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="89">
         <v>0</v>
       </c>
       <c r="L20" s="90">
         <v>0</v>
       </c>
-      <c r="M20" s="91">
+      <c r="M20" s="90">
         <v>0</v>
       </c>
       <c r="N20" s="91">
@@ -2610,11 +2736,17 @@
       <c r="O20" s="91">
         <v>0</v>
       </c>
-      <c r="P20" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="P20" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="91">
+        <v>0</v>
+      </c>
+      <c r="R20" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="80"/>
       <c r="B21" s="81"/>
       <c r="C21" s="82"/>
@@ -2639,13 +2771,13 @@
       <c r="J21" s="89">
         <v>0</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21" s="89">
         <v>0</v>
       </c>
       <c r="L21" s="90">
         <v>0</v>
       </c>
-      <c r="M21" s="91">
+      <c r="M21" s="90">
         <v>0</v>
       </c>
       <c r="N21" s="91">
@@ -2654,11 +2786,17 @@
       <c r="O21" s="91">
         <v>0</v>
       </c>
-      <c r="P21" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="P21" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="91">
+        <v>0</v>
+      </c>
+      <c r="R21" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="80"/>
       <c r="B22" s="81"/>
       <c r="C22" s="82"/>
@@ -2683,13 +2821,13 @@
       <c r="J22" s="89">
         <v>0</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="89">
         <v>0</v>
       </c>
       <c r="L22" s="90">
         <v>0</v>
       </c>
-      <c r="M22" s="91">
+      <c r="M22" s="90">
         <v>0</v>
       </c>
       <c r="N22" s="91">
@@ -2698,11 +2836,17 @@
       <c r="O22" s="91">
         <v>0</v>
       </c>
-      <c r="P22" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="P22" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="91">
+        <v>0</v>
+      </c>
+      <c r="R22" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="80"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
@@ -2727,13 +2871,13 @@
       <c r="J23" s="89">
         <v>0</v>
       </c>
-      <c r="K23" s="90">
+      <c r="K23" s="89">
         <v>0</v>
       </c>
       <c r="L23" s="90">
         <v>0</v>
       </c>
-      <c r="M23" s="91">
+      <c r="M23" s="90">
         <v>0</v>
       </c>
       <c r="N23" s="91">
@@ -2742,11 +2886,17 @@
       <c r="O23" s="91">
         <v>0</v>
       </c>
-      <c r="P23" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="P23" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="91">
+        <v>0</v>
+      </c>
+      <c r="R23" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="80"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
@@ -2771,13 +2921,13 @@
       <c r="J24" s="89">
         <v>0</v>
       </c>
-      <c r="K24" s="90">
+      <c r="K24" s="89">
         <v>0</v>
       </c>
       <c r="L24" s="90">
         <v>0</v>
       </c>
-      <c r="M24" s="91">
+      <c r="M24" s="90">
         <v>0</v>
       </c>
       <c r="N24" s="91">
@@ -2786,11 +2936,17 @@
       <c r="O24" s="91">
         <v>0</v>
       </c>
-      <c r="P24" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="P24" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="91">
+        <v>0</v>
+      </c>
+      <c r="R24" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="80"/>
       <c r="B25" s="81"/>
       <c r="C25" s="82"/>
@@ -2815,13 +2971,13 @@
       <c r="J25" s="89">
         <v>0</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="89">
         <v>0</v>
       </c>
       <c r="L25" s="90">
         <v>0</v>
       </c>
-      <c r="M25" s="91">
+      <c r="M25" s="90">
         <v>0</v>
       </c>
       <c r="N25" s="91">
@@ -2830,11 +2986,17 @@
       <c r="O25" s="91">
         <v>0</v>
       </c>
-      <c r="P25" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="P25" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="91">
+        <v>0</v>
+      </c>
+      <c r="R25" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="80"/>
       <c r="B26" s="81"/>
       <c r="C26" s="82"/>
@@ -2859,13 +3021,13 @@
       <c r="J26" s="89">
         <v>0</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="89">
         <v>0</v>
       </c>
       <c r="L26" s="90">
         <v>0</v>
       </c>
-      <c r="M26" s="91">
+      <c r="M26" s="90">
         <v>0</v>
       </c>
       <c r="N26" s="91">
@@ -2874,11 +3036,17 @@
       <c r="O26" s="91">
         <v>0</v>
       </c>
-      <c r="P26" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="P26" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="91">
+        <v>0</v>
+      </c>
+      <c r="R26" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="80"/>
       <c r="B27" s="81"/>
       <c r="C27" s="82"/>
@@ -2903,13 +3071,13 @@
       <c r="J27" s="89">
         <v>0</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="89">
         <v>0</v>
       </c>
       <c r="L27" s="90">
         <v>0</v>
       </c>
-      <c r="M27" s="91">
+      <c r="M27" s="90">
         <v>0</v>
       </c>
       <c r="N27" s="91">
@@ -2918,11 +3086,17 @@
       <c r="O27" s="91">
         <v>0</v>
       </c>
-      <c r="P27" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="91">
+        <v>0</v>
+      </c>
+      <c r="R27" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="80"/>
       <c r="B28" s="81"/>
       <c r="C28" s="82"/>
@@ -2947,13 +3121,13 @@
       <c r="J28" s="89">
         <v>0</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K28" s="89">
         <v>0</v>
       </c>
       <c r="L28" s="90">
         <v>0</v>
       </c>
-      <c r="M28" s="91">
+      <c r="M28" s="90">
         <v>0</v>
       </c>
       <c r="N28" s="91">
@@ -2962,11 +3136,17 @@
       <c r="O28" s="91">
         <v>0</v>
       </c>
-      <c r="P28" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="P28" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="91">
+        <v>0</v>
+      </c>
+      <c r="R28" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="80"/>
       <c r="B29" s="81"/>
       <c r="C29" s="82"/>
@@ -2991,13 +3171,13 @@
       <c r="J29" s="89">
         <v>0</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29" s="89">
         <v>0</v>
       </c>
       <c r="L29" s="90">
         <v>0</v>
       </c>
-      <c r="M29" s="91">
+      <c r="M29" s="90">
         <v>0</v>
       </c>
       <c r="N29" s="91">
@@ -3006,11 +3186,17 @@
       <c r="O29" s="91">
         <v>0</v>
       </c>
-      <c r="P29" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="P29" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="91">
+        <v>0</v>
+      </c>
+      <c r="R29" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="80"/>
       <c r="B30" s="81"/>
       <c r="C30" s="82"/>
@@ -3035,13 +3221,13 @@
       <c r="J30" s="89">
         <v>0</v>
       </c>
-      <c r="K30" s="90">
+      <c r="K30" s="89">
         <v>0</v>
       </c>
       <c r="L30" s="90">
         <v>0</v>
       </c>
-      <c r="M30" s="91">
+      <c r="M30" s="90">
         <v>0</v>
       </c>
       <c r="N30" s="91">
@@ -3050,11 +3236,17 @@
       <c r="O30" s="91">
         <v>0</v>
       </c>
-      <c r="P30" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="P30" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="91">
+        <v>0</v>
+      </c>
+      <c r="R30" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="80"/>
       <c r="B31" s="81"/>
       <c r="C31" s="82"/>
@@ -3079,13 +3271,13 @@
       <c r="J31" s="89">
         <v>0</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31" s="89">
         <v>0</v>
       </c>
       <c r="L31" s="90">
         <v>0</v>
       </c>
-      <c r="M31" s="91">
+      <c r="M31" s="90">
         <v>0</v>
       </c>
       <c r="N31" s="91">
@@ -3094,11 +3286,17 @@
       <c r="O31" s="91">
         <v>0</v>
       </c>
-      <c r="P31" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="P31" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="91">
+        <v>0</v>
+      </c>
+      <c r="R31" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="80"/>
       <c r="B32" s="81"/>
       <c r="C32" s="82"/>
@@ -3123,13 +3321,13 @@
       <c r="J32" s="89">
         <v>0</v>
       </c>
-      <c r="K32" s="90">
+      <c r="K32" s="89">
         <v>0</v>
       </c>
       <c r="L32" s="90">
         <v>0</v>
       </c>
-      <c r="M32" s="91">
+      <c r="M32" s="90">
         <v>0</v>
       </c>
       <c r="N32" s="91">
@@ -3138,11 +3336,17 @@
       <c r="O32" s="91">
         <v>0</v>
       </c>
-      <c r="P32" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="91">
+        <v>0</v>
+      </c>
+      <c r="R32" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="80"/>
       <c r="B33" s="81"/>
       <c r="C33" s="82"/>
@@ -3167,13 +3371,13 @@
       <c r="J33" s="89">
         <v>0</v>
       </c>
-      <c r="K33" s="90">
+      <c r="K33" s="89">
         <v>0</v>
       </c>
       <c r="L33" s="90">
         <v>0</v>
       </c>
-      <c r="M33" s="91">
+      <c r="M33" s="90">
         <v>0</v>
       </c>
       <c r="N33" s="91">
@@ -3182,11 +3386,17 @@
       <c r="O33" s="91">
         <v>0</v>
       </c>
-      <c r="P33" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="91">
+        <v>0</v>
+      </c>
+      <c r="R33" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="80"/>
       <c r="B34" s="81"/>
       <c r="C34" s="82"/>
@@ -3211,13 +3421,13 @@
       <c r="J34" s="89">
         <v>0</v>
       </c>
-      <c r="K34" s="90">
+      <c r="K34" s="89">
         <v>0</v>
       </c>
       <c r="L34" s="90">
         <v>0</v>
       </c>
-      <c r="M34" s="91">
+      <c r="M34" s="90">
         <v>0</v>
       </c>
       <c r="N34" s="91">
@@ -3226,11 +3436,17 @@
       <c r="O34" s="91">
         <v>0</v>
       </c>
-      <c r="P34" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="P34" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="91">
+        <v>0</v>
+      </c>
+      <c r="R34" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="80"/>
       <c r="B35" s="81"/>
       <c r="C35" s="82"/>
@@ -3255,13 +3471,13 @@
       <c r="J35" s="89">
         <v>0</v>
       </c>
-      <c r="K35" s="90">
+      <c r="K35" s="89">
         <v>0</v>
       </c>
       <c r="L35" s="90">
         <v>0</v>
       </c>
-      <c r="M35" s="91">
+      <c r="M35" s="90">
         <v>0</v>
       </c>
       <c r="N35" s="91">
@@ -3270,11 +3486,17 @@
       <c r="O35" s="91">
         <v>0</v>
       </c>
-      <c r="P35" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="P35" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="91">
+        <v>0</v>
+      </c>
+      <c r="R35" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="80"/>
       <c r="B36" s="81"/>
       <c r="C36" s="82"/>
@@ -3299,13 +3521,13 @@
       <c r="J36" s="89">
         <v>0</v>
       </c>
-      <c r="K36" s="90">
+      <c r="K36" s="89">
         <v>0</v>
       </c>
       <c r="L36" s="90">
         <v>0</v>
       </c>
-      <c r="M36" s="91">
+      <c r="M36" s="90">
         <v>0</v>
       </c>
       <c r="N36" s="91">
@@ -3314,11 +3536,17 @@
       <c r="O36" s="91">
         <v>0</v>
       </c>
-      <c r="P36" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="P36" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="91">
+        <v>0</v>
+      </c>
+      <c r="R36" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="80"/>
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
@@ -3343,13 +3571,13 @@
       <c r="J37" s="89">
         <v>0</v>
       </c>
-      <c r="K37" s="90">
+      <c r="K37" s="89">
         <v>0</v>
       </c>
       <c r="L37" s="90">
         <v>0</v>
       </c>
-      <c r="M37" s="91">
+      <c r="M37" s="90">
         <v>0</v>
       </c>
       <c r="N37" s="91">
@@ -3358,11 +3586,17 @@
       <c r="O37" s="91">
         <v>0</v>
       </c>
-      <c r="P37" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="P37" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="91">
+        <v>0</v>
+      </c>
+      <c r="R37" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="80"/>
       <c r="B38" s="81"/>
       <c r="C38" s="82"/>
@@ -3387,13 +3621,13 @@
       <c r="J38" s="89">
         <v>0</v>
       </c>
-      <c r="K38" s="90">
+      <c r="K38" s="89">
         <v>0</v>
       </c>
       <c r="L38" s="90">
         <v>0</v>
       </c>
-      <c r="M38" s="91">
+      <c r="M38" s="90">
         <v>0</v>
       </c>
       <c r="N38" s="91">
@@ -3402,11 +3636,17 @@
       <c r="O38" s="91">
         <v>0</v>
       </c>
-      <c r="P38" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="P38" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="91">
+        <v>0</v>
+      </c>
+      <c r="R38" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="80"/>
       <c r="B39" s="81"/>
       <c r="C39" s="82"/>
@@ -3431,13 +3671,13 @@
       <c r="J39" s="89">
         <v>0</v>
       </c>
-      <c r="K39" s="90">
+      <c r="K39" s="89">
         <v>0</v>
       </c>
       <c r="L39" s="90">
         <v>0</v>
       </c>
-      <c r="M39" s="91">
+      <c r="M39" s="90">
         <v>0</v>
       </c>
       <c r="N39" s="91">
@@ -3446,11 +3686,17 @@
       <c r="O39" s="91">
         <v>0</v>
       </c>
-      <c r="P39" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="91">
+        <v>0</v>
+      </c>
+      <c r="R39" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="80"/>
       <c r="B40" s="81"/>
       <c r="C40" s="82"/>
@@ -3475,13 +3721,13 @@
       <c r="J40" s="89">
         <v>0</v>
       </c>
-      <c r="K40" s="90">
+      <c r="K40" s="89">
         <v>0</v>
       </c>
       <c r="L40" s="90">
         <v>0</v>
       </c>
-      <c r="M40" s="91">
+      <c r="M40" s="90">
         <v>0</v>
       </c>
       <c r="N40" s="91">
@@ -3490,11 +3736,17 @@
       <c r="O40" s="91">
         <v>0</v>
       </c>
-      <c r="P40" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="P40" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="91">
+        <v>0</v>
+      </c>
+      <c r="R40" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="80"/>
       <c r="B41" s="81"/>
       <c r="C41" s="82"/>
@@ -3519,13 +3771,13 @@
       <c r="J41" s="89">
         <v>0</v>
       </c>
-      <c r="K41" s="90">
+      <c r="K41" s="89">
         <v>0</v>
       </c>
       <c r="L41" s="90">
         <v>0</v>
       </c>
-      <c r="M41" s="91">
+      <c r="M41" s="90">
         <v>0</v>
       </c>
       <c r="N41" s="91">
@@ -3534,11 +3786,17 @@
       <c r="O41" s="91">
         <v>0</v>
       </c>
-      <c r="P41" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="91">
+        <v>0</v>
+      </c>
+      <c r="R41" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="80"/>
       <c r="B42" s="81"/>
       <c r="C42" s="82"/>
@@ -3563,13 +3821,13 @@
       <c r="J42" s="89">
         <v>0</v>
       </c>
-      <c r="K42" s="90">
+      <c r="K42" s="89">
         <v>0</v>
       </c>
       <c r="L42" s="90">
         <v>0</v>
       </c>
-      <c r="M42" s="91">
+      <c r="M42" s="90">
         <v>0</v>
       </c>
       <c r="N42" s="91">
@@ -3578,11 +3836,17 @@
       <c r="O42" s="91">
         <v>0</v>
       </c>
-      <c r="P42" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="P42" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="91">
+        <v>0</v>
+      </c>
+      <c r="R42" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="80"/>
       <c r="B43" s="81"/>
       <c r="C43" s="82"/>
@@ -3607,13 +3871,13 @@
       <c r="J43" s="89">
         <v>0</v>
       </c>
-      <c r="K43" s="90">
+      <c r="K43" s="89">
         <v>0</v>
       </c>
       <c r="L43" s="90">
         <v>0</v>
       </c>
-      <c r="M43" s="91">
+      <c r="M43" s="90">
         <v>0</v>
       </c>
       <c r="N43" s="91">
@@ -3622,11 +3886,17 @@
       <c r="O43" s="91">
         <v>0</v>
       </c>
-      <c r="P43" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="P43" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="91">
+        <v>0</v>
+      </c>
+      <c r="R43" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="80"/>
       <c r="B44" s="81"/>
       <c r="C44" s="82"/>
@@ -3651,13 +3921,13 @@
       <c r="J44" s="89">
         <v>0</v>
       </c>
-      <c r="K44" s="90">
+      <c r="K44" s="89">
         <v>0</v>
       </c>
       <c r="L44" s="90">
         <v>0</v>
       </c>
-      <c r="M44" s="91">
+      <c r="M44" s="90">
         <v>0</v>
       </c>
       <c r="N44" s="91">
@@ -3666,11 +3936,17 @@
       <c r="O44" s="91">
         <v>0</v>
       </c>
-      <c r="P44" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="91">
+        <v>0</v>
+      </c>
+      <c r="R44" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="80"/>
       <c r="B45" s="81"/>
       <c r="C45" s="82"/>
@@ -3695,13 +3971,13 @@
       <c r="J45" s="89">
         <v>0</v>
       </c>
-      <c r="K45" s="90">
+      <c r="K45" s="89">
         <v>0</v>
       </c>
       <c r="L45" s="90">
         <v>0</v>
       </c>
-      <c r="M45" s="91">
+      <c r="M45" s="90">
         <v>0</v>
       </c>
       <c r="N45" s="91">
@@ -3710,11 +3986,17 @@
       <c r="O45" s="91">
         <v>0</v>
       </c>
-      <c r="P45" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="91">
+        <v>0</v>
+      </c>
+      <c r="R45" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="80"/>
       <c r="B46" s="81"/>
       <c r="C46" s="82"/>
@@ -3739,13 +4021,13 @@
       <c r="J46" s="89">
         <v>0</v>
       </c>
-      <c r="K46" s="90">
+      <c r="K46" s="89">
         <v>0</v>
       </c>
       <c r="L46" s="90">
         <v>0</v>
       </c>
-      <c r="M46" s="91">
+      <c r="M46" s="90">
         <v>0</v>
       </c>
       <c r="N46" s="91">
@@ -3754,11 +4036,17 @@
       <c r="O46" s="91">
         <v>0</v>
       </c>
-      <c r="P46" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="P46" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="91">
+        <v>0</v>
+      </c>
+      <c r="R46" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="80"/>
       <c r="B47" s="81"/>
       <c r="C47" s="82"/>
@@ -3783,13 +4071,13 @@
       <c r="J47" s="89">
         <v>0</v>
       </c>
-      <c r="K47" s="90">
+      <c r="K47" s="89">
         <v>0</v>
       </c>
       <c r="L47" s="90">
         <v>0</v>
       </c>
-      <c r="M47" s="91">
+      <c r="M47" s="90">
         <v>0</v>
       </c>
       <c r="N47" s="91">
@@ -3798,11 +4086,17 @@
       <c r="O47" s="91">
         <v>0</v>
       </c>
-      <c r="P47" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="P47" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="91">
+        <v>0</v>
+      </c>
+      <c r="R47" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="80"/>
       <c r="B48" s="81"/>
       <c r="C48" s="82"/>
@@ -3827,13 +4121,13 @@
       <c r="J48" s="89">
         <v>0</v>
       </c>
-      <c r="K48" s="90">
+      <c r="K48" s="89">
         <v>0</v>
       </c>
       <c r="L48" s="90">
         <v>0</v>
       </c>
-      <c r="M48" s="91">
+      <c r="M48" s="90">
         <v>0</v>
       </c>
       <c r="N48" s="91">
@@ -3842,11 +4136,17 @@
       <c r="O48" s="91">
         <v>0</v>
       </c>
-      <c r="P48" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="P48" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="91">
+        <v>0</v>
+      </c>
+      <c r="R48" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="80"/>
       <c r="B49" s="81"/>
       <c r="C49" s="82"/>
@@ -3871,13 +4171,13 @@
       <c r="J49" s="89">
         <v>0</v>
       </c>
-      <c r="K49" s="90">
+      <c r="K49" s="89">
         <v>0</v>
       </c>
       <c r="L49" s="90">
         <v>0</v>
       </c>
-      <c r="M49" s="91">
+      <c r="M49" s="90">
         <v>0</v>
       </c>
       <c r="N49" s="91">
@@ -3886,11 +4186,17 @@
       <c r="O49" s="91">
         <v>0</v>
       </c>
-      <c r="P49" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="P49" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="91">
+        <v>0</v>
+      </c>
+      <c r="R49" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="80"/>
       <c r="B50" s="81"/>
       <c r="C50" s="82"/>
@@ -3915,13 +4221,13 @@
       <c r="J50" s="89">
         <v>0</v>
       </c>
-      <c r="K50" s="90">
+      <c r="K50" s="89">
         <v>0</v>
       </c>
       <c r="L50" s="90">
         <v>0</v>
       </c>
-      <c r="M50" s="91">
+      <c r="M50" s="90">
         <v>0</v>
       </c>
       <c r="N50" s="91">
@@ -3930,11 +4236,17 @@
       <c r="O50" s="91">
         <v>0</v>
       </c>
-      <c r="P50" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="P50" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="91">
+        <v>0</v>
+      </c>
+      <c r="R50" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="80"/>
       <c r="B51" s="81"/>
       <c r="C51" s="82"/>
@@ -3959,13 +4271,13 @@
       <c r="J51" s="89">
         <v>0</v>
       </c>
-      <c r="K51" s="90">
+      <c r="K51" s="89">
         <v>0</v>
       </c>
       <c r="L51" s="90">
         <v>0</v>
       </c>
-      <c r="M51" s="91">
+      <c r="M51" s="90">
         <v>0</v>
       </c>
       <c r="N51" s="91">
@@ -3974,11 +4286,17 @@
       <c r="O51" s="91">
         <v>0</v>
       </c>
-      <c r="P51" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="P51" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="91">
+        <v>0</v>
+      </c>
+      <c r="R51" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="80"/>
       <c r="B52" s="81"/>
       <c r="C52" s="82"/>
@@ -4003,13 +4321,13 @@
       <c r="J52" s="89">
         <v>0</v>
       </c>
-      <c r="K52" s="90">
+      <c r="K52" s="89">
         <v>0</v>
       </c>
       <c r="L52" s="90">
         <v>0</v>
       </c>
-      <c r="M52" s="91">
+      <c r="M52" s="90">
         <v>0</v>
       </c>
       <c r="N52" s="91">
@@ -4018,11 +4336,17 @@
       <c r="O52" s="91">
         <v>0</v>
       </c>
-      <c r="P52" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="91">
+        <v>0</v>
+      </c>
+      <c r="R52" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="80"/>
       <c r="B53" s="81"/>
       <c r="C53" s="82"/>
@@ -4047,13 +4371,13 @@
       <c r="J53" s="89">
         <v>0</v>
       </c>
-      <c r="K53" s="90">
+      <c r="K53" s="89">
         <v>0</v>
       </c>
       <c r="L53" s="90">
         <v>0</v>
       </c>
-      <c r="M53" s="91">
+      <c r="M53" s="90">
         <v>0</v>
       </c>
       <c r="N53" s="91">
@@ -4062,11 +4386,17 @@
       <c r="O53" s="91">
         <v>0</v>
       </c>
-      <c r="P53" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="P53" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="91">
+        <v>0</v>
+      </c>
+      <c r="R53" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="80"/>
       <c r="B54" s="81"/>
       <c r="C54" s="82"/>
@@ -4091,13 +4421,13 @@
       <c r="J54" s="89">
         <v>0</v>
       </c>
-      <c r="K54" s="90">
+      <c r="K54" s="89">
         <v>0</v>
       </c>
       <c r="L54" s="90">
         <v>0</v>
       </c>
-      <c r="M54" s="91">
+      <c r="M54" s="90">
         <v>0</v>
       </c>
       <c r="N54" s="91">
@@ -4106,11 +4436,17 @@
       <c r="O54" s="91">
         <v>0</v>
       </c>
-      <c r="P54" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="P54" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="91">
+        <v>0</v>
+      </c>
+      <c r="R54" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="80"/>
       <c r="B55" s="81"/>
       <c r="C55" s="82"/>
@@ -4135,13 +4471,13 @@
       <c r="J55" s="89">
         <v>0</v>
       </c>
-      <c r="K55" s="90">
+      <c r="K55" s="89">
         <v>0</v>
       </c>
       <c r="L55" s="90">
         <v>0</v>
       </c>
-      <c r="M55" s="91">
+      <c r="M55" s="90">
         <v>0</v>
       </c>
       <c r="N55" s="91">
@@ -4150,11 +4486,17 @@
       <c r="O55" s="91">
         <v>0</v>
       </c>
-      <c r="P55" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="P55" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="91">
+        <v>0</v>
+      </c>
+      <c r="R55" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="80"/>
       <c r="B56" s="81"/>
       <c r="C56" s="82"/>
@@ -4179,13 +4521,13 @@
       <c r="J56" s="89">
         <v>0</v>
       </c>
-      <c r="K56" s="90">
+      <c r="K56" s="89">
         <v>0</v>
       </c>
       <c r="L56" s="90">
         <v>0</v>
       </c>
-      <c r="M56" s="91">
+      <c r="M56" s="90">
         <v>0</v>
       </c>
       <c r="N56" s="91">
@@ -4194,11 +4536,17 @@
       <c r="O56" s="91">
         <v>0</v>
       </c>
-      <c r="P56" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="P56" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="91">
+        <v>0</v>
+      </c>
+      <c r="R56" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="80"/>
       <c r="B57" s="81"/>
       <c r="C57" s="82"/>
@@ -4223,13 +4571,13 @@
       <c r="J57" s="89">
         <v>0</v>
       </c>
-      <c r="K57" s="90">
+      <c r="K57" s="89">
         <v>0</v>
       </c>
       <c r="L57" s="90">
         <v>0</v>
       </c>
-      <c r="M57" s="91">
+      <c r="M57" s="90">
         <v>0</v>
       </c>
       <c r="N57" s="91">
@@ -4238,11 +4586,17 @@
       <c r="O57" s="91">
         <v>0</v>
       </c>
-      <c r="P57" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="P57" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="91">
+        <v>0</v>
+      </c>
+      <c r="R57" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="80"/>
       <c r="B58" s="81"/>
       <c r="C58" s="82"/>
@@ -4267,13 +4621,13 @@
       <c r="J58" s="89">
         <v>0</v>
       </c>
-      <c r="K58" s="90">
+      <c r="K58" s="89">
         <v>0</v>
       </c>
       <c r="L58" s="90">
         <v>0</v>
       </c>
-      <c r="M58" s="91">
+      <c r="M58" s="90">
         <v>0</v>
       </c>
       <c r="N58" s="91">
@@ -4282,11 +4636,17 @@
       <c r="O58" s="91">
         <v>0</v>
       </c>
-      <c r="P58" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="P58" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="91">
+        <v>0</v>
+      </c>
+      <c r="R58" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="80"/>
       <c r="B59" s="81"/>
       <c r="C59" s="82"/>
@@ -4311,13 +4671,13 @@
       <c r="J59" s="89">
         <v>0</v>
       </c>
-      <c r="K59" s="90">
+      <c r="K59" s="89">
         <v>0</v>
       </c>
       <c r="L59" s="90">
         <v>0</v>
       </c>
-      <c r="M59" s="91">
+      <c r="M59" s="90">
         <v>0</v>
       </c>
       <c r="N59" s="91">
@@ -4326,11 +4686,17 @@
       <c r="O59" s="91">
         <v>0</v>
       </c>
-      <c r="P59" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="P59" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="91">
+        <v>0</v>
+      </c>
+      <c r="R59" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="80"/>
       <c r="B60" s="81"/>
       <c r="C60" s="82"/>
@@ -4355,13 +4721,13 @@
       <c r="J60" s="89">
         <v>0</v>
       </c>
-      <c r="K60" s="90">
+      <c r="K60" s="89">
         <v>0</v>
       </c>
       <c r="L60" s="90">
         <v>0</v>
       </c>
-      <c r="M60" s="91">
+      <c r="M60" s="90">
         <v>0</v>
       </c>
       <c r="N60" s="91">
@@ -4370,11 +4736,17 @@
       <c r="O60" s="91">
         <v>0</v>
       </c>
-      <c r="P60" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="P60" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="91">
+        <v>0</v>
+      </c>
+      <c r="R60" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="80"/>
       <c r="B61" s="81"/>
       <c r="C61" s="82"/>
@@ -4399,13 +4771,13 @@
       <c r="J61" s="89">
         <v>0</v>
       </c>
-      <c r="K61" s="90">
+      <c r="K61" s="89">
         <v>0</v>
       </c>
       <c r="L61" s="90">
         <v>0</v>
       </c>
-      <c r="M61" s="91">
+      <c r="M61" s="90">
         <v>0</v>
       </c>
       <c r="N61" s="91">
@@ -4414,11 +4786,17 @@
       <c r="O61" s="91">
         <v>0</v>
       </c>
-      <c r="P61" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="P61" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="91">
+        <v>0</v>
+      </c>
+      <c r="R61" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="80"/>
       <c r="B62" s="81"/>
       <c r="C62" s="82"/>
@@ -4443,13 +4821,13 @@
       <c r="J62" s="89">
         <v>0</v>
       </c>
-      <c r="K62" s="90">
+      <c r="K62" s="89">
         <v>0</v>
       </c>
       <c r="L62" s="90">
         <v>0</v>
       </c>
-      <c r="M62" s="91">
+      <c r="M62" s="90">
         <v>0</v>
       </c>
       <c r="N62" s="91">
@@ -4458,11 +4836,17 @@
       <c r="O62" s="91">
         <v>0</v>
       </c>
-      <c r="P62" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="P62" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="91">
+        <v>0</v>
+      </c>
+      <c r="R62" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="80"/>
       <c r="B63" s="81"/>
       <c r="C63" s="82"/>
@@ -4487,13 +4871,13 @@
       <c r="J63" s="89">
         <v>0</v>
       </c>
-      <c r="K63" s="90">
+      <c r="K63" s="89">
         <v>0</v>
       </c>
       <c r="L63" s="90">
         <v>0</v>
       </c>
-      <c r="M63" s="91">
+      <c r="M63" s="90">
         <v>0</v>
       </c>
       <c r="N63" s="91">
@@ -4502,11 +4886,17 @@
       <c r="O63" s="91">
         <v>0</v>
       </c>
-      <c r="P63" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="P63" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="91">
+        <v>0</v>
+      </c>
+      <c r="R63" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="80"/>
       <c r="B64" s="81"/>
       <c r="C64" s="82"/>
@@ -4531,13 +4921,13 @@
       <c r="J64" s="89">
         <v>0</v>
       </c>
-      <c r="K64" s="90">
+      <c r="K64" s="89">
         <v>0</v>
       </c>
       <c r="L64" s="90">
         <v>0</v>
       </c>
-      <c r="M64" s="91">
+      <c r="M64" s="90">
         <v>0</v>
       </c>
       <c r="N64" s="91">
@@ -4546,11 +4936,17 @@
       <c r="O64" s="91">
         <v>0</v>
       </c>
-      <c r="P64" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="P64" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="91">
+        <v>0</v>
+      </c>
+      <c r="R64" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="80"/>
       <c r="B65" s="81"/>
       <c r="C65" s="82"/>
@@ -4575,13 +4971,13 @@
       <c r="J65" s="89">
         <v>0</v>
       </c>
-      <c r="K65" s="90">
+      <c r="K65" s="89">
         <v>0</v>
       </c>
       <c r="L65" s="90">
         <v>0</v>
       </c>
-      <c r="M65" s="91">
+      <c r="M65" s="90">
         <v>0</v>
       </c>
       <c r="N65" s="91">
@@ -4590,11 +4986,17 @@
       <c r="O65" s="91">
         <v>0</v>
       </c>
-      <c r="P65" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="P65" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="91">
+        <v>0</v>
+      </c>
+      <c r="R65" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="80"/>
       <c r="B66" s="81"/>
       <c r="C66" s="82"/>
@@ -4619,13 +5021,13 @@
       <c r="J66" s="89">
         <v>0</v>
       </c>
-      <c r="K66" s="90">
+      <c r="K66" s="89">
         <v>0</v>
       </c>
       <c r="L66" s="90">
         <v>0</v>
       </c>
-      <c r="M66" s="91">
+      <c r="M66" s="90">
         <v>0</v>
       </c>
       <c r="N66" s="91">
@@ -4634,11 +5036,17 @@
       <c r="O66" s="91">
         <v>0</v>
       </c>
-      <c r="P66" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="P66" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="91">
+        <v>0</v>
+      </c>
+      <c r="R66" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="80"/>
       <c r="B67" s="81"/>
       <c r="C67" s="82"/>
@@ -4663,13 +5071,13 @@
       <c r="J67" s="89">
         <v>0</v>
       </c>
-      <c r="K67" s="90">
+      <c r="K67" s="89">
         <v>0</v>
       </c>
       <c r="L67" s="90">
         <v>0</v>
       </c>
-      <c r="M67" s="91">
+      <c r="M67" s="90">
         <v>0</v>
       </c>
       <c r="N67" s="91">
@@ -4678,11 +5086,17 @@
       <c r="O67" s="91">
         <v>0</v>
       </c>
-      <c r="P67" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="P67" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="91">
+        <v>0</v>
+      </c>
+      <c r="R67" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="80"/>
       <c r="B68" s="81"/>
       <c r="C68" s="82"/>
@@ -4707,13 +5121,13 @@
       <c r="J68" s="89">
         <v>0</v>
       </c>
-      <c r="K68" s="90">
+      <c r="K68" s="89">
         <v>0</v>
       </c>
       <c r="L68" s="90">
         <v>0</v>
       </c>
-      <c r="M68" s="91">
+      <c r="M68" s="90">
         <v>0</v>
       </c>
       <c r="N68" s="91">
@@ -4722,11 +5136,17 @@
       <c r="O68" s="91">
         <v>0</v>
       </c>
-      <c r="P68" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="P68" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="91">
+        <v>0</v>
+      </c>
+      <c r="R68" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="80"/>
       <c r="B69" s="81"/>
       <c r="C69" s="82"/>
@@ -4751,13 +5171,13 @@
       <c r="J69" s="89">
         <v>0</v>
       </c>
-      <c r="K69" s="90">
+      <c r="K69" s="89">
         <v>0</v>
       </c>
       <c r="L69" s="90">
         <v>0</v>
       </c>
-      <c r="M69" s="91">
+      <c r="M69" s="90">
         <v>0</v>
       </c>
       <c r="N69" s="91">
@@ -4766,11 +5186,17 @@
       <c r="O69" s="91">
         <v>0</v>
       </c>
-      <c r="P69" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="P69" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="91">
+        <v>0</v>
+      </c>
+      <c r="R69" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="80"/>
       <c r="B70" s="81"/>
       <c r="C70" s="82"/>
@@ -4795,13 +5221,13 @@
       <c r="J70" s="89">
         <v>0</v>
       </c>
-      <c r="K70" s="90">
+      <c r="K70" s="89">
         <v>0</v>
       </c>
       <c r="L70" s="90">
         <v>0</v>
       </c>
-      <c r="M70" s="91">
+      <c r="M70" s="90">
         <v>0</v>
       </c>
       <c r="N70" s="91">
@@ -4810,11 +5236,17 @@
       <c r="O70" s="91">
         <v>0</v>
       </c>
-      <c r="P70" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="P70" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="91">
+        <v>0</v>
+      </c>
+      <c r="R70" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="80"/>
       <c r="B71" s="81"/>
       <c r="C71" s="82"/>
@@ -4839,13 +5271,13 @@
       <c r="J71" s="89">
         <v>0</v>
       </c>
-      <c r="K71" s="90">
+      <c r="K71" s="89">
         <v>0</v>
       </c>
       <c r="L71" s="90">
         <v>0</v>
       </c>
-      <c r="M71" s="91">
+      <c r="M71" s="90">
         <v>0</v>
       </c>
       <c r="N71" s="91">
@@ -4854,11 +5286,17 @@
       <c r="O71" s="91">
         <v>0</v>
       </c>
-      <c r="P71" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="P71" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="91">
+        <v>0</v>
+      </c>
+      <c r="R71" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="80"/>
       <c r="B72" s="81"/>
       <c r="C72" s="82"/>
@@ -4883,13 +5321,13 @@
       <c r="J72" s="89">
         <v>0</v>
       </c>
-      <c r="K72" s="90">
+      <c r="K72" s="89">
         <v>0</v>
       </c>
       <c r="L72" s="90">
         <v>0</v>
       </c>
-      <c r="M72" s="91">
+      <c r="M72" s="90">
         <v>0</v>
       </c>
       <c r="N72" s="91">
@@ -4898,11 +5336,17 @@
       <c r="O72" s="91">
         <v>0</v>
       </c>
-      <c r="P72" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="P72" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="91">
+        <v>0</v>
+      </c>
+      <c r="R72" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="80"/>
       <c r="B73" s="81"/>
       <c r="C73" s="82"/>
@@ -4927,13 +5371,13 @@
       <c r="J73" s="89">
         <v>0</v>
       </c>
-      <c r="K73" s="90">
+      <c r="K73" s="89">
         <v>0</v>
       </c>
       <c r="L73" s="90">
         <v>0</v>
       </c>
-      <c r="M73" s="91">
+      <c r="M73" s="90">
         <v>0</v>
       </c>
       <c r="N73" s="91">
@@ -4942,11 +5386,17 @@
       <c r="O73" s="91">
         <v>0</v>
       </c>
-      <c r="P73" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="P73" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="91">
+        <v>0</v>
+      </c>
+      <c r="R73" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="80"/>
       <c r="B74" s="81"/>
       <c r="C74" s="82"/>
@@ -4971,13 +5421,13 @@
       <c r="J74" s="89">
         <v>0</v>
       </c>
-      <c r="K74" s="90">
+      <c r="K74" s="89">
         <v>0</v>
       </c>
       <c r="L74" s="90">
         <v>0</v>
       </c>
-      <c r="M74" s="91">
+      <c r="M74" s="90">
         <v>0</v>
       </c>
       <c r="N74" s="91">
@@ -4986,11 +5436,17 @@
       <c r="O74" s="91">
         <v>0</v>
       </c>
-      <c r="P74" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="P74" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="91">
+        <v>0</v>
+      </c>
+      <c r="R74" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="80"/>
       <c r="B75" s="81"/>
       <c r="C75" s="82"/>
@@ -5015,13 +5471,13 @@
       <c r="J75" s="89">
         <v>0</v>
       </c>
-      <c r="K75" s="90">
+      <c r="K75" s="89">
         <v>0</v>
       </c>
       <c r="L75" s="90">
         <v>0</v>
       </c>
-      <c r="M75" s="91">
+      <c r="M75" s="90">
         <v>0</v>
       </c>
       <c r="N75" s="91">
@@ -5030,11 +5486,17 @@
       <c r="O75" s="91">
         <v>0</v>
       </c>
-      <c r="P75" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="P75" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="91">
+        <v>0</v>
+      </c>
+      <c r="R75" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="80"/>
       <c r="B76" s="81"/>
       <c r="C76" s="82"/>
@@ -5059,13 +5521,13 @@
       <c r="J76" s="89">
         <v>0</v>
       </c>
-      <c r="K76" s="90">
+      <c r="K76" s="89">
         <v>0</v>
       </c>
       <c r="L76" s="90">
         <v>0</v>
       </c>
-      <c r="M76" s="91">
+      <c r="M76" s="90">
         <v>0</v>
       </c>
       <c r="N76" s="91">
@@ -5074,11 +5536,17 @@
       <c r="O76" s="91">
         <v>0</v>
       </c>
-      <c r="P76" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="P76" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="91">
+        <v>0</v>
+      </c>
+      <c r="R76" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="80"/>
       <c r="B77" s="81"/>
       <c r="C77" s="82"/>
@@ -5103,13 +5571,13 @@
       <c r="J77" s="89">
         <v>0</v>
       </c>
-      <c r="K77" s="90">
+      <c r="K77" s="89">
         <v>0</v>
       </c>
       <c r="L77" s="90">
         <v>0</v>
       </c>
-      <c r="M77" s="91">
+      <c r="M77" s="90">
         <v>0</v>
       </c>
       <c r="N77" s="91">
@@ -5118,11 +5586,17 @@
       <c r="O77" s="91">
         <v>0</v>
       </c>
-      <c r="P77" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="P77" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="91">
+        <v>0</v>
+      </c>
+      <c r="R77" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="80"/>
       <c r="B78" s="81"/>
       <c r="C78" s="82"/>
@@ -5147,13 +5621,13 @@
       <c r="J78" s="89">
         <v>0</v>
       </c>
-      <c r="K78" s="90">
+      <c r="K78" s="89">
         <v>0</v>
       </c>
       <c r="L78" s="90">
         <v>0</v>
       </c>
-      <c r="M78" s="91">
+      <c r="M78" s="90">
         <v>0</v>
       </c>
       <c r="N78" s="91">
@@ -5162,11 +5636,17 @@
       <c r="O78" s="91">
         <v>0</v>
       </c>
-      <c r="P78" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="P78" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="91">
+        <v>0</v>
+      </c>
+      <c r="R78" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="80"/>
       <c r="B79" s="81"/>
       <c r="C79" s="82"/>
@@ -5191,13 +5671,13 @@
       <c r="J79" s="89">
         <v>0</v>
       </c>
-      <c r="K79" s="90">
+      <c r="K79" s="89">
         <v>0</v>
       </c>
       <c r="L79" s="90">
         <v>0</v>
       </c>
-      <c r="M79" s="91">
+      <c r="M79" s="90">
         <v>0</v>
       </c>
       <c r="N79" s="91">
@@ -5206,11 +5686,17 @@
       <c r="O79" s="91">
         <v>0</v>
       </c>
-      <c r="P79" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="P79" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="91">
+        <v>0</v>
+      </c>
+      <c r="R79" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="80"/>
       <c r="B80" s="81"/>
       <c r="C80" s="82"/>
@@ -5235,13 +5721,13 @@
       <c r="J80" s="89">
         <v>0</v>
       </c>
-      <c r="K80" s="90">
+      <c r="K80" s="89">
         <v>0</v>
       </c>
       <c r="L80" s="90">
         <v>0</v>
       </c>
-      <c r="M80" s="91">
+      <c r="M80" s="90">
         <v>0</v>
       </c>
       <c r="N80" s="91">
@@ -5250,11 +5736,17 @@
       <c r="O80" s="91">
         <v>0</v>
       </c>
-      <c r="P80" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="P80" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="91">
+        <v>0</v>
+      </c>
+      <c r="R80" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="80"/>
       <c r="B81" s="81"/>
       <c r="C81" s="82"/>
@@ -5279,13 +5771,13 @@
       <c r="J81" s="89">
         <v>0</v>
       </c>
-      <c r="K81" s="90">
+      <c r="K81" s="89">
         <v>0</v>
       </c>
       <c r="L81" s="90">
         <v>0</v>
       </c>
-      <c r="M81" s="91">
+      <c r="M81" s="90">
         <v>0</v>
       </c>
       <c r="N81" s="91">
@@ -5294,11 +5786,17 @@
       <c r="O81" s="91">
         <v>0</v>
       </c>
-      <c r="P81" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="P81" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="91">
+        <v>0</v>
+      </c>
+      <c r="R81" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="80"/>
       <c r="B82" s="81"/>
       <c r="C82" s="82"/>
@@ -5323,13 +5821,13 @@
       <c r="J82" s="89">
         <v>0</v>
       </c>
-      <c r="K82" s="90">
+      <c r="K82" s="89">
         <v>0</v>
       </c>
       <c r="L82" s="90">
         <v>0</v>
       </c>
-      <c r="M82" s="91">
+      <c r="M82" s="90">
         <v>0</v>
       </c>
       <c r="N82" s="91">
@@ -5338,11 +5836,17 @@
       <c r="O82" s="91">
         <v>0</v>
       </c>
-      <c r="P82" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="P82" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="91">
+        <v>0</v>
+      </c>
+      <c r="R82" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="80"/>
       <c r="B83" s="81"/>
       <c r="C83" s="82"/>
@@ -5367,13 +5871,13 @@
       <c r="J83" s="89">
         <v>0</v>
       </c>
-      <c r="K83" s="90">
+      <c r="K83" s="89">
         <v>0</v>
       </c>
       <c r="L83" s="90">
         <v>0</v>
       </c>
-      <c r="M83" s="91">
+      <c r="M83" s="90">
         <v>0</v>
       </c>
       <c r="N83" s="91">
@@ -5382,11 +5886,17 @@
       <c r="O83" s="91">
         <v>0</v>
       </c>
-      <c r="P83" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="P83" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="91">
+        <v>0</v>
+      </c>
+      <c r="R83" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="80"/>
       <c r="B84" s="81"/>
       <c r="C84" s="82"/>
@@ -5411,13 +5921,13 @@
       <c r="J84" s="89">
         <v>0</v>
       </c>
-      <c r="K84" s="90">
+      <c r="K84" s="89">
         <v>0</v>
       </c>
       <c r="L84" s="90">
         <v>0</v>
       </c>
-      <c r="M84" s="91">
+      <c r="M84" s="90">
         <v>0</v>
       </c>
       <c r="N84" s="91">
@@ -5426,11 +5936,17 @@
       <c r="O84" s="91">
         <v>0</v>
       </c>
-      <c r="P84" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="P84" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="91">
+        <v>0</v>
+      </c>
+      <c r="R84" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="80"/>
       <c r="B85" s="81"/>
       <c r="C85" s="82"/>
@@ -5455,13 +5971,13 @@
       <c r="J85" s="89">
         <v>0</v>
       </c>
-      <c r="K85" s="90">
+      <c r="K85" s="89">
         <v>0</v>
       </c>
       <c r="L85" s="90">
         <v>0</v>
       </c>
-      <c r="M85" s="91">
+      <c r="M85" s="90">
         <v>0</v>
       </c>
       <c r="N85" s="91">
@@ -5470,11 +5986,17 @@
       <c r="O85" s="91">
         <v>0</v>
       </c>
-      <c r="P85" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="P85" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="91">
+        <v>0</v>
+      </c>
+      <c r="R85" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="80"/>
       <c r="B86" s="81"/>
       <c r="C86" s="82"/>
@@ -5499,13 +6021,13 @@
       <c r="J86" s="89">
         <v>0</v>
       </c>
-      <c r="K86" s="90">
+      <c r="K86" s="89">
         <v>0</v>
       </c>
       <c r="L86" s="90">
         <v>0</v>
       </c>
-      <c r="M86" s="91">
+      <c r="M86" s="90">
         <v>0</v>
       </c>
       <c r="N86" s="91">
@@ -5514,11 +6036,17 @@
       <c r="O86" s="91">
         <v>0</v>
       </c>
-      <c r="P86" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="P86" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="91">
+        <v>0</v>
+      </c>
+      <c r="R86" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="80"/>
       <c r="B87" s="81"/>
       <c r="C87" s="82"/>
@@ -5543,13 +6071,13 @@
       <c r="J87" s="89">
         <v>0</v>
       </c>
-      <c r="K87" s="90">
+      <c r="K87" s="89">
         <v>0</v>
       </c>
       <c r="L87" s="90">
         <v>0</v>
       </c>
-      <c r="M87" s="91">
+      <c r="M87" s="90">
         <v>0</v>
       </c>
       <c r="N87" s="91">
@@ -5558,11 +6086,17 @@
       <c r="O87" s="91">
         <v>0</v>
       </c>
-      <c r="P87" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="P87" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="91">
+        <v>0</v>
+      </c>
+      <c r="R87" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="80"/>
       <c r="B88" s="81"/>
       <c r="C88" s="82"/>
@@ -5587,13 +6121,13 @@
       <c r="J88" s="89">
         <v>0</v>
       </c>
-      <c r="K88" s="90">
+      <c r="K88" s="89">
         <v>0</v>
       </c>
       <c r="L88" s="90">
         <v>0</v>
       </c>
-      <c r="M88" s="91">
+      <c r="M88" s="90">
         <v>0</v>
       </c>
       <c r="N88" s="91">
@@ -5602,11 +6136,17 @@
       <c r="O88" s="91">
         <v>0</v>
       </c>
-      <c r="P88" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="P88" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="91">
+        <v>0</v>
+      </c>
+      <c r="R88" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="80"/>
       <c r="B89" s="81"/>
       <c r="C89" s="82"/>
@@ -5631,13 +6171,13 @@
       <c r="J89" s="89">
         <v>0</v>
       </c>
-      <c r="K89" s="90">
+      <c r="K89" s="89">
         <v>0</v>
       </c>
       <c r="L89" s="90">
         <v>0</v>
       </c>
-      <c r="M89" s="91">
+      <c r="M89" s="90">
         <v>0</v>
       </c>
       <c r="N89" s="91">
@@ -5646,11 +6186,17 @@
       <c r="O89" s="91">
         <v>0</v>
       </c>
-      <c r="P89" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="P89" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="91">
+        <v>0</v>
+      </c>
+      <c r="R89" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="80"/>
       <c r="B90" s="81"/>
       <c r="C90" s="82"/>
@@ -5675,13 +6221,13 @@
       <c r="J90" s="89">
         <v>0</v>
       </c>
-      <c r="K90" s="90">
+      <c r="K90" s="89">
         <v>0</v>
       </c>
       <c r="L90" s="90">
         <v>0</v>
       </c>
-      <c r="M90" s="91">
+      <c r="M90" s="90">
         <v>0</v>
       </c>
       <c r="N90" s="91">
@@ -5690,11 +6236,17 @@
       <c r="O90" s="91">
         <v>0</v>
       </c>
-      <c r="P90" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="P90" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="91">
+        <v>0</v>
+      </c>
+      <c r="R90" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="80"/>
       <c r="B91" s="81"/>
       <c r="C91" s="82"/>
@@ -5719,13 +6271,13 @@
       <c r="J91" s="89">
         <v>0</v>
       </c>
-      <c r="K91" s="90">
+      <c r="K91" s="89">
         <v>0</v>
       </c>
       <c r="L91" s="90">
         <v>0</v>
       </c>
-      <c r="M91" s="91">
+      <c r="M91" s="90">
         <v>0</v>
       </c>
       <c r="N91" s="91">
@@ -5734,11 +6286,17 @@
       <c r="O91" s="91">
         <v>0</v>
       </c>
-      <c r="P91" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="P91" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="91">
+        <v>0</v>
+      </c>
+      <c r="R91" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="80"/>
       <c r="B92" s="81"/>
       <c r="C92" s="82"/>
@@ -5763,13 +6321,13 @@
       <c r="J92" s="89">
         <v>0</v>
       </c>
-      <c r="K92" s="90">
+      <c r="K92" s="89">
         <v>0</v>
       </c>
       <c r="L92" s="90">
         <v>0</v>
       </c>
-      <c r="M92" s="91">
+      <c r="M92" s="90">
         <v>0</v>
       </c>
       <c r="N92" s="91">
@@ -5778,11 +6336,17 @@
       <c r="O92" s="91">
         <v>0</v>
       </c>
-      <c r="P92" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="P92" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="91">
+        <v>0</v>
+      </c>
+      <c r="R92" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="80"/>
       <c r="B93" s="81"/>
       <c r="C93" s="82"/>
@@ -5807,13 +6371,13 @@
       <c r="J93" s="89">
         <v>0</v>
       </c>
-      <c r="K93" s="90">
+      <c r="K93" s="89">
         <v>0</v>
       </c>
       <c r="L93" s="90">
         <v>0</v>
       </c>
-      <c r="M93" s="91">
+      <c r="M93" s="90">
         <v>0</v>
       </c>
       <c r="N93" s="91">
@@ -5822,11 +6386,17 @@
       <c r="O93" s="91">
         <v>0</v>
       </c>
-      <c r="P93" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="P93" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="91">
+        <v>0</v>
+      </c>
+      <c r="R93" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="80"/>
       <c r="B94" s="81"/>
       <c r="C94" s="82"/>
@@ -5851,13 +6421,13 @@
       <c r="J94" s="89">
         <v>0</v>
       </c>
-      <c r="K94" s="90">
+      <c r="K94" s="89">
         <v>0</v>
       </c>
       <c r="L94" s="90">
         <v>0</v>
       </c>
-      <c r="M94" s="91">
+      <c r="M94" s="90">
         <v>0</v>
       </c>
       <c r="N94" s="91">
@@ -5866,11 +6436,17 @@
       <c r="O94" s="91">
         <v>0</v>
       </c>
-      <c r="P94" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="P94" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="91">
+        <v>0</v>
+      </c>
+      <c r="R94" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="80"/>
       <c r="B95" s="81"/>
       <c r="C95" s="82"/>
@@ -5895,13 +6471,13 @@
       <c r="J95" s="89">
         <v>0</v>
       </c>
-      <c r="K95" s="90">
+      <c r="K95" s="89">
         <v>0</v>
       </c>
       <c r="L95" s="90">
         <v>0</v>
       </c>
-      <c r="M95" s="91">
+      <c r="M95" s="90">
         <v>0</v>
       </c>
       <c r="N95" s="91">
@@ -5910,11 +6486,17 @@
       <c r="O95" s="91">
         <v>0</v>
       </c>
-      <c r="P95" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="P95" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="91">
+        <v>0</v>
+      </c>
+      <c r="R95" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="80"/>
       <c r="B96" s="81"/>
       <c r="C96" s="82"/>
@@ -5939,13 +6521,13 @@
       <c r="J96" s="89">
         <v>0</v>
       </c>
-      <c r="K96" s="90">
+      <c r="K96" s="89">
         <v>0</v>
       </c>
       <c r="L96" s="90">
         <v>0</v>
       </c>
-      <c r="M96" s="91">
+      <c r="M96" s="90">
         <v>0</v>
       </c>
       <c r="N96" s="91">
@@ -5954,11 +6536,17 @@
       <c r="O96" s="91">
         <v>0</v>
       </c>
-      <c r="P96" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="P96" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="91">
+        <v>0</v>
+      </c>
+      <c r="R96" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="80"/>
       <c r="B97" s="81"/>
       <c r="C97" s="82"/>
@@ -5983,13 +6571,13 @@
       <c r="J97" s="89">
         <v>0</v>
       </c>
-      <c r="K97" s="90">
+      <c r="K97" s="89">
         <v>0</v>
       </c>
       <c r="L97" s="90">
         <v>0</v>
       </c>
-      <c r="M97" s="91">
+      <c r="M97" s="90">
         <v>0</v>
       </c>
       <c r="N97" s="91">
@@ -5998,11 +6586,17 @@
       <c r="O97" s="91">
         <v>0</v>
       </c>
-      <c r="P97" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="P97" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="91">
+        <v>0</v>
+      </c>
+      <c r="R97" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="80"/>
       <c r="B98" s="81"/>
       <c r="C98" s="82"/>
@@ -6027,13 +6621,13 @@
       <c r="J98" s="89">
         <v>0</v>
       </c>
-      <c r="K98" s="90">
+      <c r="K98" s="89">
         <v>0</v>
       </c>
       <c r="L98" s="90">
         <v>0</v>
       </c>
-      <c r="M98" s="91">
+      <c r="M98" s="90">
         <v>0</v>
       </c>
       <c r="N98" s="91">
@@ -6042,11 +6636,17 @@
       <c r="O98" s="91">
         <v>0</v>
       </c>
-      <c r="P98" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="P98" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="91">
+        <v>0</v>
+      </c>
+      <c r="R98" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="80"/>
       <c r="B99" s="81"/>
       <c r="C99" s="82"/>
@@ -6071,13 +6671,13 @@
       <c r="J99" s="89">
         <v>0</v>
       </c>
-      <c r="K99" s="90">
+      <c r="K99" s="89">
         <v>0</v>
       </c>
       <c r="L99" s="90">
         <v>0</v>
       </c>
-      <c r="M99" s="91">
+      <c r="M99" s="90">
         <v>0</v>
       </c>
       <c r="N99" s="91">
@@ -6086,11 +6686,17 @@
       <c r="O99" s="91">
         <v>0</v>
       </c>
-      <c r="P99" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="P99" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="91">
+        <v>0</v>
+      </c>
+      <c r="R99" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="80"/>
       <c r="B100" s="81"/>
       <c r="C100" s="82"/>
@@ -6115,13 +6721,13 @@
       <c r="J100" s="89">
         <v>0</v>
       </c>
-      <c r="K100" s="90">
+      <c r="K100" s="89">
         <v>0</v>
       </c>
       <c r="L100" s="90">
         <v>0</v>
       </c>
-      <c r="M100" s="91">
+      <c r="M100" s="90">
         <v>0</v>
       </c>
       <c r="N100" s="91">
@@ -6130,11 +6736,17 @@
       <c r="O100" s="91">
         <v>0</v>
       </c>
-      <c r="P100" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="P100" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="91">
+        <v>0</v>
+      </c>
+      <c r="R100" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="80"/>
       <c r="B101" s="81"/>
       <c r="C101" s="82"/>
@@ -6159,13 +6771,13 @@
       <c r="J101" s="89">
         <v>0</v>
       </c>
-      <c r="K101" s="90">
+      <c r="K101" s="89">
         <v>0</v>
       </c>
       <c r="L101" s="90">
         <v>0</v>
       </c>
-      <c r="M101" s="91">
+      <c r="M101" s="90">
         <v>0</v>
       </c>
       <c r="N101" s="91">
@@ -6174,11 +6786,17 @@
       <c r="O101" s="91">
         <v>0</v>
       </c>
-      <c r="P101" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="P101" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="91">
+        <v>0</v>
+      </c>
+      <c r="R101" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="80"/>
       <c r="B102" s="81"/>
       <c r="C102" s="82"/>
@@ -6203,13 +6821,13 @@
       <c r="J102" s="89">
         <v>0</v>
       </c>
-      <c r="K102" s="90">
+      <c r="K102" s="89">
         <v>0</v>
       </c>
       <c r="L102" s="90">
         <v>0</v>
       </c>
-      <c r="M102" s="91">
+      <c r="M102" s="90">
         <v>0</v>
       </c>
       <c r="N102" s="91">
@@ -6218,11 +6836,17 @@
       <c r="O102" s="91">
         <v>0</v>
       </c>
-      <c r="P102" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="P102" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="91">
+        <v>0</v>
+      </c>
+      <c r="R102" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="80"/>
       <c r="B103" s="81"/>
       <c r="C103" s="82"/>
@@ -6247,13 +6871,13 @@
       <c r="J103" s="89">
         <v>0</v>
       </c>
-      <c r="K103" s="90">
+      <c r="K103" s="89">
         <v>0</v>
       </c>
       <c r="L103" s="90">
         <v>0</v>
       </c>
-      <c r="M103" s="91">
+      <c r="M103" s="90">
         <v>0</v>
       </c>
       <c r="N103" s="91">
@@ -6262,11 +6886,17 @@
       <c r="O103" s="91">
         <v>0</v>
       </c>
-      <c r="P103" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="P103" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="91">
+        <v>0</v>
+      </c>
+      <c r="R103" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="80"/>
       <c r="B104" s="81"/>
       <c r="C104" s="82"/>
@@ -6291,13 +6921,13 @@
       <c r="J104" s="89">
         <v>0</v>
       </c>
-      <c r="K104" s="90">
+      <c r="K104" s="89">
         <v>0</v>
       </c>
       <c r="L104" s="90">
         <v>0</v>
       </c>
-      <c r="M104" s="91">
+      <c r="M104" s="90">
         <v>0</v>
       </c>
       <c r="N104" s="91">
@@ -6306,7 +6936,13 @@
       <c r="O104" s="91">
         <v>0</v>
       </c>
-      <c r="P104" s="92">
+      <c r="P104" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="91">
+        <v>0</v>
+      </c>
+      <c r="R104" s="92">
         <v>0</v>
       </c>
     </row>
@@ -6315,13 +6951,13 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D4:O104">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D4:Q104">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H104">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6441,7 +7077,7 @@
     </row>
     <row r="5" spans="1:19" ht="14" customHeight="1" outlineLevel="1">
       <c r="C5" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20"/>
@@ -6811,71 +7447,71 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="51">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G19">
+    <cfRule type="containsText" dxfId="36" priority="24" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",G13)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",G13)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="33" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I19">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J19">
-    <cfRule type="containsText" dxfId="30" priority="9" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"未実施"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="10" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
+    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"削除予定"</formula>
+    <cfRule type="cellIs" dxfId="28" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"保留"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="6" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"未実施"</formula>
+    <cfRule type="containsText" dxfId="24" priority="8" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
+    <cfRule type="containsText" dxfId="23" priority="9" stopIfTrue="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"保留"</formula>
+    <cfRule type="containsText" dxfId="22" priority="10" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
@@ -6894,8 +7530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641B8779-49CC-7C41-8244-DBC27C6FCB57}">
   <dimension ref="A1:S1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
@@ -7002,7 +7638,7 @@
     </row>
     <row r="5" spans="1:19" ht="14" customHeight="1" outlineLevel="1">
       <c r="C5" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20"/>
@@ -30142,58 +30778,63 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="52">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G1009">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="iOS">
+      <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="iOS">
-      <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="17" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1009">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J1009">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"未実施"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"保留"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="9" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="8" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"未実施"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"保留"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="containsText" dxfId="7" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J1009">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"COND_AUTO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -30210,9 +30851,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC8D3DF-4B4C-6241-B3EE-09F2029151AE}">
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -30263,53 +30906,58 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="20">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20">
+      <c r="A11" s="11" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20">
       <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="12" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:A12">
+  <conditionalFormatting sqref="A3:A13">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>

--- a/src/main/resources/TestSpec.xlsx
+++ b/src/main/resources/TestSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91ED854-93B7-FC4B-8130-78368A8F39B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2523753-5397-5148-8282-02034E22D39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21160" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="39920" windowHeight="36460" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandList" sheetId="1" r:id="rId1"/>
@@ -1818,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92274D22-EDA0-BF40-BFA2-FCB7B06DA8AB}">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6946,17 +6946,2317 @@
         <v>0</v>
       </c>
     </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="80"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="83">
+        <v>0</v>
+      </c>
+      <c r="E105" s="84">
+        <v>0</v>
+      </c>
+      <c r="F105" s="85">
+        <v>0</v>
+      </c>
+      <c r="G105" s="86">
+        <v>0</v>
+      </c>
+      <c r="H105" s="87">
+        <v>0</v>
+      </c>
+      <c r="I105" s="88">
+        <v>0</v>
+      </c>
+      <c r="J105" s="89">
+        <v>0</v>
+      </c>
+      <c r="K105" s="89">
+        <v>0</v>
+      </c>
+      <c r="L105" s="90">
+        <v>0</v>
+      </c>
+      <c r="M105" s="90">
+        <v>0</v>
+      </c>
+      <c r="N105" s="91">
+        <v>0</v>
+      </c>
+      <c r="O105" s="91">
+        <v>0</v>
+      </c>
+      <c r="P105" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="91">
+        <v>0</v>
+      </c>
+      <c r="R105" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="80"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83">
+        <v>0</v>
+      </c>
+      <c r="E106" s="84">
+        <v>0</v>
+      </c>
+      <c r="F106" s="85">
+        <v>0</v>
+      </c>
+      <c r="G106" s="86">
+        <v>0</v>
+      </c>
+      <c r="H106" s="87">
+        <v>0</v>
+      </c>
+      <c r="I106" s="88">
+        <v>0</v>
+      </c>
+      <c r="J106" s="89">
+        <v>0</v>
+      </c>
+      <c r="K106" s="89">
+        <v>0</v>
+      </c>
+      <c r="L106" s="90">
+        <v>0</v>
+      </c>
+      <c r="M106" s="90">
+        <v>0</v>
+      </c>
+      <c r="N106" s="91">
+        <v>0</v>
+      </c>
+      <c r="O106" s="91">
+        <v>0</v>
+      </c>
+      <c r="P106" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="91">
+        <v>0</v>
+      </c>
+      <c r="R106" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="80"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="83">
+        <v>0</v>
+      </c>
+      <c r="E107" s="84">
+        <v>0</v>
+      </c>
+      <c r="F107" s="85">
+        <v>0</v>
+      </c>
+      <c r="G107" s="86">
+        <v>0</v>
+      </c>
+      <c r="H107" s="87">
+        <v>0</v>
+      </c>
+      <c r="I107" s="88">
+        <v>0</v>
+      </c>
+      <c r="J107" s="89">
+        <v>0</v>
+      </c>
+      <c r="K107" s="89">
+        <v>0</v>
+      </c>
+      <c r="L107" s="90">
+        <v>0</v>
+      </c>
+      <c r="M107" s="90">
+        <v>0</v>
+      </c>
+      <c r="N107" s="91">
+        <v>0</v>
+      </c>
+      <c r="O107" s="91">
+        <v>0</v>
+      </c>
+      <c r="P107" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="91">
+        <v>0</v>
+      </c>
+      <c r="R107" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="80"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="83">
+        <v>0</v>
+      </c>
+      <c r="E108" s="84">
+        <v>0</v>
+      </c>
+      <c r="F108" s="85">
+        <v>0</v>
+      </c>
+      <c r="G108" s="86">
+        <v>0</v>
+      </c>
+      <c r="H108" s="87">
+        <v>0</v>
+      </c>
+      <c r="I108" s="88">
+        <v>0</v>
+      </c>
+      <c r="J108" s="89">
+        <v>0</v>
+      </c>
+      <c r="K108" s="89">
+        <v>0</v>
+      </c>
+      <c r="L108" s="90">
+        <v>0</v>
+      </c>
+      <c r="M108" s="90">
+        <v>0</v>
+      </c>
+      <c r="N108" s="91">
+        <v>0</v>
+      </c>
+      <c r="O108" s="91">
+        <v>0</v>
+      </c>
+      <c r="P108" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="91">
+        <v>0</v>
+      </c>
+      <c r="R108" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="80"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="83">
+        <v>0</v>
+      </c>
+      <c r="E109" s="84">
+        <v>0</v>
+      </c>
+      <c r="F109" s="85">
+        <v>0</v>
+      </c>
+      <c r="G109" s="86">
+        <v>0</v>
+      </c>
+      <c r="H109" s="87">
+        <v>0</v>
+      </c>
+      <c r="I109" s="88">
+        <v>0</v>
+      </c>
+      <c r="J109" s="89">
+        <v>0</v>
+      </c>
+      <c r="K109" s="89">
+        <v>0</v>
+      </c>
+      <c r="L109" s="90">
+        <v>0</v>
+      </c>
+      <c r="M109" s="90">
+        <v>0</v>
+      </c>
+      <c r="N109" s="91">
+        <v>0</v>
+      </c>
+      <c r="O109" s="91">
+        <v>0</v>
+      </c>
+      <c r="P109" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="91">
+        <v>0</v>
+      </c>
+      <c r="R109" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="80"/>
+      <c r="B110" s="81"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="83">
+        <v>0</v>
+      </c>
+      <c r="E110" s="84">
+        <v>0</v>
+      </c>
+      <c r="F110" s="85">
+        <v>0</v>
+      </c>
+      <c r="G110" s="86">
+        <v>0</v>
+      </c>
+      <c r="H110" s="87">
+        <v>0</v>
+      </c>
+      <c r="I110" s="88">
+        <v>0</v>
+      </c>
+      <c r="J110" s="89">
+        <v>0</v>
+      </c>
+      <c r="K110" s="89">
+        <v>0</v>
+      </c>
+      <c r="L110" s="90">
+        <v>0</v>
+      </c>
+      <c r="M110" s="90">
+        <v>0</v>
+      </c>
+      <c r="N110" s="91">
+        <v>0</v>
+      </c>
+      <c r="O110" s="91">
+        <v>0</v>
+      </c>
+      <c r="P110" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="91">
+        <v>0</v>
+      </c>
+      <c r="R110" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="80"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="82"/>
+      <c r="D111" s="83">
+        <v>0</v>
+      </c>
+      <c r="E111" s="84">
+        <v>0</v>
+      </c>
+      <c r="F111" s="85">
+        <v>0</v>
+      </c>
+      <c r="G111" s="86">
+        <v>0</v>
+      </c>
+      <c r="H111" s="87">
+        <v>0</v>
+      </c>
+      <c r="I111" s="88">
+        <v>0</v>
+      </c>
+      <c r="J111" s="89">
+        <v>0</v>
+      </c>
+      <c r="K111" s="89">
+        <v>0</v>
+      </c>
+      <c r="L111" s="90">
+        <v>0</v>
+      </c>
+      <c r="M111" s="90">
+        <v>0</v>
+      </c>
+      <c r="N111" s="91">
+        <v>0</v>
+      </c>
+      <c r="O111" s="91">
+        <v>0</v>
+      </c>
+      <c r="P111" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="91">
+        <v>0</v>
+      </c>
+      <c r="R111" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="80"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="83">
+        <v>0</v>
+      </c>
+      <c r="E112" s="84">
+        <v>0</v>
+      </c>
+      <c r="F112" s="85">
+        <v>0</v>
+      </c>
+      <c r="G112" s="86">
+        <v>0</v>
+      </c>
+      <c r="H112" s="87">
+        <v>0</v>
+      </c>
+      <c r="I112" s="88">
+        <v>0</v>
+      </c>
+      <c r="J112" s="89">
+        <v>0</v>
+      </c>
+      <c r="K112" s="89">
+        <v>0</v>
+      </c>
+      <c r="L112" s="90">
+        <v>0</v>
+      </c>
+      <c r="M112" s="90">
+        <v>0</v>
+      </c>
+      <c r="N112" s="91">
+        <v>0</v>
+      </c>
+      <c r="O112" s="91">
+        <v>0</v>
+      </c>
+      <c r="P112" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="91">
+        <v>0</v>
+      </c>
+      <c r="R112" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="80"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="82"/>
+      <c r="D113" s="83">
+        <v>0</v>
+      </c>
+      <c r="E113" s="84">
+        <v>0</v>
+      </c>
+      <c r="F113" s="85">
+        <v>0</v>
+      </c>
+      <c r="G113" s="86">
+        <v>0</v>
+      </c>
+      <c r="H113" s="87">
+        <v>0</v>
+      </c>
+      <c r="I113" s="88">
+        <v>0</v>
+      </c>
+      <c r="J113" s="89">
+        <v>0</v>
+      </c>
+      <c r="K113" s="89">
+        <v>0</v>
+      </c>
+      <c r="L113" s="90">
+        <v>0</v>
+      </c>
+      <c r="M113" s="90">
+        <v>0</v>
+      </c>
+      <c r="N113" s="91">
+        <v>0</v>
+      </c>
+      <c r="O113" s="91">
+        <v>0</v>
+      </c>
+      <c r="P113" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="91">
+        <v>0</v>
+      </c>
+      <c r="R113" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="80"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="83">
+        <v>0</v>
+      </c>
+      <c r="E114" s="84">
+        <v>0</v>
+      </c>
+      <c r="F114" s="85">
+        <v>0</v>
+      </c>
+      <c r="G114" s="86">
+        <v>0</v>
+      </c>
+      <c r="H114" s="87">
+        <v>0</v>
+      </c>
+      <c r="I114" s="88">
+        <v>0</v>
+      </c>
+      <c r="J114" s="89">
+        <v>0</v>
+      </c>
+      <c r="K114" s="89">
+        <v>0</v>
+      </c>
+      <c r="L114" s="90">
+        <v>0</v>
+      </c>
+      <c r="M114" s="90">
+        <v>0</v>
+      </c>
+      <c r="N114" s="91">
+        <v>0</v>
+      </c>
+      <c r="O114" s="91">
+        <v>0</v>
+      </c>
+      <c r="P114" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="91">
+        <v>0</v>
+      </c>
+      <c r="R114" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" s="80"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="83">
+        <v>0</v>
+      </c>
+      <c r="E115" s="84">
+        <v>0</v>
+      </c>
+      <c r="F115" s="85">
+        <v>0</v>
+      </c>
+      <c r="G115" s="86">
+        <v>0</v>
+      </c>
+      <c r="H115" s="87">
+        <v>0</v>
+      </c>
+      <c r="I115" s="88">
+        <v>0</v>
+      </c>
+      <c r="J115" s="89">
+        <v>0</v>
+      </c>
+      <c r="K115" s="89">
+        <v>0</v>
+      </c>
+      <c r="L115" s="90">
+        <v>0</v>
+      </c>
+      <c r="M115" s="90">
+        <v>0</v>
+      </c>
+      <c r="N115" s="91">
+        <v>0</v>
+      </c>
+      <c r="O115" s="91">
+        <v>0</v>
+      </c>
+      <c r="P115" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="91">
+        <v>0</v>
+      </c>
+      <c r="R115" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="80"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="83">
+        <v>0</v>
+      </c>
+      <c r="E116" s="84">
+        <v>0</v>
+      </c>
+      <c r="F116" s="85">
+        <v>0</v>
+      </c>
+      <c r="G116" s="86">
+        <v>0</v>
+      </c>
+      <c r="H116" s="87">
+        <v>0</v>
+      </c>
+      <c r="I116" s="88">
+        <v>0</v>
+      </c>
+      <c r="J116" s="89">
+        <v>0</v>
+      </c>
+      <c r="K116" s="89">
+        <v>0</v>
+      </c>
+      <c r="L116" s="90">
+        <v>0</v>
+      </c>
+      <c r="M116" s="90">
+        <v>0</v>
+      </c>
+      <c r="N116" s="91">
+        <v>0</v>
+      </c>
+      <c r="O116" s="91">
+        <v>0</v>
+      </c>
+      <c r="P116" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="91">
+        <v>0</v>
+      </c>
+      <c r="R116" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="80"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="82"/>
+      <c r="D117" s="83">
+        <v>0</v>
+      </c>
+      <c r="E117" s="84">
+        <v>0</v>
+      </c>
+      <c r="F117" s="85">
+        <v>0</v>
+      </c>
+      <c r="G117" s="86">
+        <v>0</v>
+      </c>
+      <c r="H117" s="87">
+        <v>0</v>
+      </c>
+      <c r="I117" s="88">
+        <v>0</v>
+      </c>
+      <c r="J117" s="89">
+        <v>0</v>
+      </c>
+      <c r="K117" s="89">
+        <v>0</v>
+      </c>
+      <c r="L117" s="90">
+        <v>0</v>
+      </c>
+      <c r="M117" s="90">
+        <v>0</v>
+      </c>
+      <c r="N117" s="91">
+        <v>0</v>
+      </c>
+      <c r="O117" s="91">
+        <v>0</v>
+      </c>
+      <c r="P117" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="91">
+        <v>0</v>
+      </c>
+      <c r="R117" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="80"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="82"/>
+      <c r="D118" s="83">
+        <v>0</v>
+      </c>
+      <c r="E118" s="84">
+        <v>0</v>
+      </c>
+      <c r="F118" s="85">
+        <v>0</v>
+      </c>
+      <c r="G118" s="86">
+        <v>0</v>
+      </c>
+      <c r="H118" s="87">
+        <v>0</v>
+      </c>
+      <c r="I118" s="88">
+        <v>0</v>
+      </c>
+      <c r="J118" s="89">
+        <v>0</v>
+      </c>
+      <c r="K118" s="89">
+        <v>0</v>
+      </c>
+      <c r="L118" s="90">
+        <v>0</v>
+      </c>
+      <c r="M118" s="90">
+        <v>0</v>
+      </c>
+      <c r="N118" s="91">
+        <v>0</v>
+      </c>
+      <c r="O118" s="91">
+        <v>0</v>
+      </c>
+      <c r="P118" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="91">
+        <v>0</v>
+      </c>
+      <c r="R118" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" s="80"/>
+      <c r="B119" s="81"/>
+      <c r="C119" s="82"/>
+      <c r="D119" s="83">
+        <v>0</v>
+      </c>
+      <c r="E119" s="84">
+        <v>0</v>
+      </c>
+      <c r="F119" s="85">
+        <v>0</v>
+      </c>
+      <c r="G119" s="86">
+        <v>0</v>
+      </c>
+      <c r="H119" s="87">
+        <v>0</v>
+      </c>
+      <c r="I119" s="88">
+        <v>0</v>
+      </c>
+      <c r="J119" s="89">
+        <v>0</v>
+      </c>
+      <c r="K119" s="89">
+        <v>0</v>
+      </c>
+      <c r="L119" s="90">
+        <v>0</v>
+      </c>
+      <c r="M119" s="90">
+        <v>0</v>
+      </c>
+      <c r="N119" s="91">
+        <v>0</v>
+      </c>
+      <c r="O119" s="91">
+        <v>0</v>
+      </c>
+      <c r="P119" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="91">
+        <v>0</v>
+      </c>
+      <c r="R119" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="80"/>
+      <c r="B120" s="81"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="83">
+        <v>0</v>
+      </c>
+      <c r="E120" s="84">
+        <v>0</v>
+      </c>
+      <c r="F120" s="85">
+        <v>0</v>
+      </c>
+      <c r="G120" s="86">
+        <v>0</v>
+      </c>
+      <c r="H120" s="87">
+        <v>0</v>
+      </c>
+      <c r="I120" s="88">
+        <v>0</v>
+      </c>
+      <c r="J120" s="89">
+        <v>0</v>
+      </c>
+      <c r="K120" s="89">
+        <v>0</v>
+      </c>
+      <c r="L120" s="90">
+        <v>0</v>
+      </c>
+      <c r="M120" s="90">
+        <v>0</v>
+      </c>
+      <c r="N120" s="91">
+        <v>0</v>
+      </c>
+      <c r="O120" s="91">
+        <v>0</v>
+      </c>
+      <c r="P120" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="91">
+        <v>0</v>
+      </c>
+      <c r="R120" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="80"/>
+      <c r="B121" s="81"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="83">
+        <v>0</v>
+      </c>
+      <c r="E121" s="84">
+        <v>0</v>
+      </c>
+      <c r="F121" s="85">
+        <v>0</v>
+      </c>
+      <c r="G121" s="86">
+        <v>0</v>
+      </c>
+      <c r="H121" s="87">
+        <v>0</v>
+      </c>
+      <c r="I121" s="88">
+        <v>0</v>
+      </c>
+      <c r="J121" s="89">
+        <v>0</v>
+      </c>
+      <c r="K121" s="89">
+        <v>0</v>
+      </c>
+      <c r="L121" s="90">
+        <v>0</v>
+      </c>
+      <c r="M121" s="90">
+        <v>0</v>
+      </c>
+      <c r="N121" s="91">
+        <v>0</v>
+      </c>
+      <c r="O121" s="91">
+        <v>0</v>
+      </c>
+      <c r="P121" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="91">
+        <v>0</v>
+      </c>
+      <c r="R121" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="80"/>
+      <c r="B122" s="81"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="83">
+        <v>0</v>
+      </c>
+      <c r="E122" s="84">
+        <v>0</v>
+      </c>
+      <c r="F122" s="85">
+        <v>0</v>
+      </c>
+      <c r="G122" s="86">
+        <v>0</v>
+      </c>
+      <c r="H122" s="87">
+        <v>0</v>
+      </c>
+      <c r="I122" s="88">
+        <v>0</v>
+      </c>
+      <c r="J122" s="89">
+        <v>0</v>
+      </c>
+      <c r="K122" s="89">
+        <v>0</v>
+      </c>
+      <c r="L122" s="90">
+        <v>0</v>
+      </c>
+      <c r="M122" s="90">
+        <v>0</v>
+      </c>
+      <c r="N122" s="91">
+        <v>0</v>
+      </c>
+      <c r="O122" s="91">
+        <v>0</v>
+      </c>
+      <c r="P122" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="91">
+        <v>0</v>
+      </c>
+      <c r="R122" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="80"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="83">
+        <v>0</v>
+      </c>
+      <c r="E123" s="84">
+        <v>0</v>
+      </c>
+      <c r="F123" s="85">
+        <v>0</v>
+      </c>
+      <c r="G123" s="86">
+        <v>0</v>
+      </c>
+      <c r="H123" s="87">
+        <v>0</v>
+      </c>
+      <c r="I123" s="88">
+        <v>0</v>
+      </c>
+      <c r="J123" s="89">
+        <v>0</v>
+      </c>
+      <c r="K123" s="89">
+        <v>0</v>
+      </c>
+      <c r="L123" s="90">
+        <v>0</v>
+      </c>
+      <c r="M123" s="90">
+        <v>0</v>
+      </c>
+      <c r="N123" s="91">
+        <v>0</v>
+      </c>
+      <c r="O123" s="91">
+        <v>0</v>
+      </c>
+      <c r="P123" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="91">
+        <v>0</v>
+      </c>
+      <c r="R123" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="80"/>
+      <c r="B124" s="81"/>
+      <c r="C124" s="82"/>
+      <c r="D124" s="83">
+        <v>0</v>
+      </c>
+      <c r="E124" s="84">
+        <v>0</v>
+      </c>
+      <c r="F124" s="85">
+        <v>0</v>
+      </c>
+      <c r="G124" s="86">
+        <v>0</v>
+      </c>
+      <c r="H124" s="87">
+        <v>0</v>
+      </c>
+      <c r="I124" s="88">
+        <v>0</v>
+      </c>
+      <c r="J124" s="89">
+        <v>0</v>
+      </c>
+      <c r="K124" s="89">
+        <v>0</v>
+      </c>
+      <c r="L124" s="90">
+        <v>0</v>
+      </c>
+      <c r="M124" s="90">
+        <v>0</v>
+      </c>
+      <c r="N124" s="91">
+        <v>0</v>
+      </c>
+      <c r="O124" s="91">
+        <v>0</v>
+      </c>
+      <c r="P124" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="91">
+        <v>0</v>
+      </c>
+      <c r="R124" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="80"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="82"/>
+      <c r="D125" s="83">
+        <v>0</v>
+      </c>
+      <c r="E125" s="84">
+        <v>0</v>
+      </c>
+      <c r="F125" s="85">
+        <v>0</v>
+      </c>
+      <c r="G125" s="86">
+        <v>0</v>
+      </c>
+      <c r="H125" s="87">
+        <v>0</v>
+      </c>
+      <c r="I125" s="88">
+        <v>0</v>
+      </c>
+      <c r="J125" s="89">
+        <v>0</v>
+      </c>
+      <c r="K125" s="89">
+        <v>0</v>
+      </c>
+      <c r="L125" s="90">
+        <v>0</v>
+      </c>
+      <c r="M125" s="90">
+        <v>0</v>
+      </c>
+      <c r="N125" s="91">
+        <v>0</v>
+      </c>
+      <c r="O125" s="91">
+        <v>0</v>
+      </c>
+      <c r="P125" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="91">
+        <v>0</v>
+      </c>
+      <c r="R125" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="80"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="83">
+        <v>0</v>
+      </c>
+      <c r="E126" s="84">
+        <v>0</v>
+      </c>
+      <c r="F126" s="85">
+        <v>0</v>
+      </c>
+      <c r="G126" s="86">
+        <v>0</v>
+      </c>
+      <c r="H126" s="87">
+        <v>0</v>
+      </c>
+      <c r="I126" s="88">
+        <v>0</v>
+      </c>
+      <c r="J126" s="89">
+        <v>0</v>
+      </c>
+      <c r="K126" s="89">
+        <v>0</v>
+      </c>
+      <c r="L126" s="90">
+        <v>0</v>
+      </c>
+      <c r="M126" s="90">
+        <v>0</v>
+      </c>
+      <c r="N126" s="91">
+        <v>0</v>
+      </c>
+      <c r="O126" s="91">
+        <v>0</v>
+      </c>
+      <c r="P126" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="91">
+        <v>0</v>
+      </c>
+      <c r="R126" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="80"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="82"/>
+      <c r="D127" s="83">
+        <v>0</v>
+      </c>
+      <c r="E127" s="84">
+        <v>0</v>
+      </c>
+      <c r="F127" s="85">
+        <v>0</v>
+      </c>
+      <c r="G127" s="86">
+        <v>0</v>
+      </c>
+      <c r="H127" s="87">
+        <v>0</v>
+      </c>
+      <c r="I127" s="88">
+        <v>0</v>
+      </c>
+      <c r="J127" s="89">
+        <v>0</v>
+      </c>
+      <c r="K127" s="89">
+        <v>0</v>
+      </c>
+      <c r="L127" s="90">
+        <v>0</v>
+      </c>
+      <c r="M127" s="90">
+        <v>0</v>
+      </c>
+      <c r="N127" s="91">
+        <v>0</v>
+      </c>
+      <c r="O127" s="91">
+        <v>0</v>
+      </c>
+      <c r="P127" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="91">
+        <v>0</v>
+      </c>
+      <c r="R127" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="80"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="82"/>
+      <c r="D128" s="83">
+        <v>0</v>
+      </c>
+      <c r="E128" s="84">
+        <v>0</v>
+      </c>
+      <c r="F128" s="85">
+        <v>0</v>
+      </c>
+      <c r="G128" s="86">
+        <v>0</v>
+      </c>
+      <c r="H128" s="87">
+        <v>0</v>
+      </c>
+      <c r="I128" s="88">
+        <v>0</v>
+      </c>
+      <c r="J128" s="89">
+        <v>0</v>
+      </c>
+      <c r="K128" s="89">
+        <v>0</v>
+      </c>
+      <c r="L128" s="90">
+        <v>0</v>
+      </c>
+      <c r="M128" s="90">
+        <v>0</v>
+      </c>
+      <c r="N128" s="91">
+        <v>0</v>
+      </c>
+      <c r="O128" s="91">
+        <v>0</v>
+      </c>
+      <c r="P128" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="91">
+        <v>0</v>
+      </c>
+      <c r="R128" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="80"/>
+      <c r="B129" s="81"/>
+      <c r="C129" s="82"/>
+      <c r="D129" s="83">
+        <v>0</v>
+      </c>
+      <c r="E129" s="84">
+        <v>0</v>
+      </c>
+      <c r="F129" s="85">
+        <v>0</v>
+      </c>
+      <c r="G129" s="86">
+        <v>0</v>
+      </c>
+      <c r="H129" s="87">
+        <v>0</v>
+      </c>
+      <c r="I129" s="88">
+        <v>0</v>
+      </c>
+      <c r="J129" s="89">
+        <v>0</v>
+      </c>
+      <c r="K129" s="89">
+        <v>0</v>
+      </c>
+      <c r="L129" s="90">
+        <v>0</v>
+      </c>
+      <c r="M129" s="90">
+        <v>0</v>
+      </c>
+      <c r="N129" s="91">
+        <v>0</v>
+      </c>
+      <c r="O129" s="91">
+        <v>0</v>
+      </c>
+      <c r="P129" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="91">
+        <v>0</v>
+      </c>
+      <c r="R129" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" s="80"/>
+      <c r="B130" s="81"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="83">
+        <v>0</v>
+      </c>
+      <c r="E130" s="84">
+        <v>0</v>
+      </c>
+      <c r="F130" s="85">
+        <v>0</v>
+      </c>
+      <c r="G130" s="86">
+        <v>0</v>
+      </c>
+      <c r="H130" s="87">
+        <v>0</v>
+      </c>
+      <c r="I130" s="88">
+        <v>0</v>
+      </c>
+      <c r="J130" s="89">
+        <v>0</v>
+      </c>
+      <c r="K130" s="89">
+        <v>0</v>
+      </c>
+      <c r="L130" s="90">
+        <v>0</v>
+      </c>
+      <c r="M130" s="90">
+        <v>0</v>
+      </c>
+      <c r="N130" s="91">
+        <v>0</v>
+      </c>
+      <c r="O130" s="91">
+        <v>0</v>
+      </c>
+      <c r="P130" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="91">
+        <v>0</v>
+      </c>
+      <c r="R130" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" s="80"/>
+      <c r="B131" s="81"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="83">
+        <v>0</v>
+      </c>
+      <c r="E131" s="84">
+        <v>0</v>
+      </c>
+      <c r="F131" s="85">
+        <v>0</v>
+      </c>
+      <c r="G131" s="86">
+        <v>0</v>
+      </c>
+      <c r="H131" s="87">
+        <v>0</v>
+      </c>
+      <c r="I131" s="88">
+        <v>0</v>
+      </c>
+      <c r="J131" s="89">
+        <v>0</v>
+      </c>
+      <c r="K131" s="89">
+        <v>0</v>
+      </c>
+      <c r="L131" s="90">
+        <v>0</v>
+      </c>
+      <c r="M131" s="90">
+        <v>0</v>
+      </c>
+      <c r="N131" s="91">
+        <v>0</v>
+      </c>
+      <c r="O131" s="91">
+        <v>0</v>
+      </c>
+      <c r="P131" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="91">
+        <v>0</v>
+      </c>
+      <c r="R131" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" s="80"/>
+      <c r="B132" s="81"/>
+      <c r="C132" s="82"/>
+      <c r="D132" s="83">
+        <v>0</v>
+      </c>
+      <c r="E132" s="84">
+        <v>0</v>
+      </c>
+      <c r="F132" s="85">
+        <v>0</v>
+      </c>
+      <c r="G132" s="86">
+        <v>0</v>
+      </c>
+      <c r="H132" s="87">
+        <v>0</v>
+      </c>
+      <c r="I132" s="88">
+        <v>0</v>
+      </c>
+      <c r="J132" s="89">
+        <v>0</v>
+      </c>
+      <c r="K132" s="89">
+        <v>0</v>
+      </c>
+      <c r="L132" s="90">
+        <v>0</v>
+      </c>
+      <c r="M132" s="90">
+        <v>0</v>
+      </c>
+      <c r="N132" s="91">
+        <v>0</v>
+      </c>
+      <c r="O132" s="91">
+        <v>0</v>
+      </c>
+      <c r="P132" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="91">
+        <v>0</v>
+      </c>
+      <c r="R132" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" s="80"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="83">
+        <v>0</v>
+      </c>
+      <c r="E133" s="84">
+        <v>0</v>
+      </c>
+      <c r="F133" s="85">
+        <v>0</v>
+      </c>
+      <c r="G133" s="86">
+        <v>0</v>
+      </c>
+      <c r="H133" s="87">
+        <v>0</v>
+      </c>
+      <c r="I133" s="88">
+        <v>0</v>
+      </c>
+      <c r="J133" s="89">
+        <v>0</v>
+      </c>
+      <c r="K133" s="89">
+        <v>0</v>
+      </c>
+      <c r="L133" s="90">
+        <v>0</v>
+      </c>
+      <c r="M133" s="90">
+        <v>0</v>
+      </c>
+      <c r="N133" s="91">
+        <v>0</v>
+      </c>
+      <c r="O133" s="91">
+        <v>0</v>
+      </c>
+      <c r="P133" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="91">
+        <v>0</v>
+      </c>
+      <c r="R133" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="80"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="82"/>
+      <c r="D134" s="83">
+        <v>0</v>
+      </c>
+      <c r="E134" s="84">
+        <v>0</v>
+      </c>
+      <c r="F134" s="85">
+        <v>0</v>
+      </c>
+      <c r="G134" s="86">
+        <v>0</v>
+      </c>
+      <c r="H134" s="87">
+        <v>0</v>
+      </c>
+      <c r="I134" s="88">
+        <v>0</v>
+      </c>
+      <c r="J134" s="89">
+        <v>0</v>
+      </c>
+      <c r="K134" s="89">
+        <v>0</v>
+      </c>
+      <c r="L134" s="90">
+        <v>0</v>
+      </c>
+      <c r="M134" s="90">
+        <v>0</v>
+      </c>
+      <c r="N134" s="91">
+        <v>0</v>
+      </c>
+      <c r="O134" s="91">
+        <v>0</v>
+      </c>
+      <c r="P134" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="91">
+        <v>0</v>
+      </c>
+      <c r="R134" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="80"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="82"/>
+      <c r="D135" s="83">
+        <v>0</v>
+      </c>
+      <c r="E135" s="84">
+        <v>0</v>
+      </c>
+      <c r="F135" s="85">
+        <v>0</v>
+      </c>
+      <c r="G135" s="86">
+        <v>0</v>
+      </c>
+      <c r="H135" s="87">
+        <v>0</v>
+      </c>
+      <c r="I135" s="88">
+        <v>0</v>
+      </c>
+      <c r="J135" s="89">
+        <v>0</v>
+      </c>
+      <c r="K135" s="89">
+        <v>0</v>
+      </c>
+      <c r="L135" s="90">
+        <v>0</v>
+      </c>
+      <c r="M135" s="90">
+        <v>0</v>
+      </c>
+      <c r="N135" s="91">
+        <v>0</v>
+      </c>
+      <c r="O135" s="91">
+        <v>0</v>
+      </c>
+      <c r="P135" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="91">
+        <v>0</v>
+      </c>
+      <c r="R135" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" s="80"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="82"/>
+      <c r="D136" s="83">
+        <v>0</v>
+      </c>
+      <c r="E136" s="84">
+        <v>0</v>
+      </c>
+      <c r="F136" s="85">
+        <v>0</v>
+      </c>
+      <c r="G136" s="86">
+        <v>0</v>
+      </c>
+      <c r="H136" s="87">
+        <v>0</v>
+      </c>
+      <c r="I136" s="88">
+        <v>0</v>
+      </c>
+      <c r="J136" s="89">
+        <v>0</v>
+      </c>
+      <c r="K136" s="89">
+        <v>0</v>
+      </c>
+      <c r="L136" s="90">
+        <v>0</v>
+      </c>
+      <c r="M136" s="90">
+        <v>0</v>
+      </c>
+      <c r="N136" s="91">
+        <v>0</v>
+      </c>
+      <c r="O136" s="91">
+        <v>0</v>
+      </c>
+      <c r="P136" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="91">
+        <v>0</v>
+      </c>
+      <c r="R136" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
+      <c r="A137" s="80"/>
+      <c r="B137" s="81"/>
+      <c r="C137" s="82"/>
+      <c r="D137" s="83">
+        <v>0</v>
+      </c>
+      <c r="E137" s="84">
+        <v>0</v>
+      </c>
+      <c r="F137" s="85">
+        <v>0</v>
+      </c>
+      <c r="G137" s="86">
+        <v>0</v>
+      </c>
+      <c r="H137" s="87">
+        <v>0</v>
+      </c>
+      <c r="I137" s="88">
+        <v>0</v>
+      </c>
+      <c r="J137" s="89">
+        <v>0</v>
+      </c>
+      <c r="K137" s="89">
+        <v>0</v>
+      </c>
+      <c r="L137" s="90">
+        <v>0</v>
+      </c>
+      <c r="M137" s="90">
+        <v>0</v>
+      </c>
+      <c r="N137" s="91">
+        <v>0</v>
+      </c>
+      <c r="O137" s="91">
+        <v>0</v>
+      </c>
+      <c r="P137" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="91">
+        <v>0</v>
+      </c>
+      <c r="R137" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
+      <c r="A138" s="80"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="82"/>
+      <c r="D138" s="83">
+        <v>0</v>
+      </c>
+      <c r="E138" s="84">
+        <v>0</v>
+      </c>
+      <c r="F138" s="85">
+        <v>0</v>
+      </c>
+      <c r="G138" s="86">
+        <v>0</v>
+      </c>
+      <c r="H138" s="87">
+        <v>0</v>
+      </c>
+      <c r="I138" s="88">
+        <v>0</v>
+      </c>
+      <c r="J138" s="89">
+        <v>0</v>
+      </c>
+      <c r="K138" s="89">
+        <v>0</v>
+      </c>
+      <c r="L138" s="90">
+        <v>0</v>
+      </c>
+      <c r="M138" s="90">
+        <v>0</v>
+      </c>
+      <c r="N138" s="91">
+        <v>0</v>
+      </c>
+      <c r="O138" s="91">
+        <v>0</v>
+      </c>
+      <c r="P138" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="91">
+        <v>0</v>
+      </c>
+      <c r="R138" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
+      <c r="A139" s="80"/>
+      <c r="B139" s="81"/>
+      <c r="C139" s="82"/>
+      <c r="D139" s="83">
+        <v>0</v>
+      </c>
+      <c r="E139" s="84">
+        <v>0</v>
+      </c>
+      <c r="F139" s="85">
+        <v>0</v>
+      </c>
+      <c r="G139" s="86">
+        <v>0</v>
+      </c>
+      <c r="H139" s="87">
+        <v>0</v>
+      </c>
+      <c r="I139" s="88">
+        <v>0</v>
+      </c>
+      <c r="J139" s="89">
+        <v>0</v>
+      </c>
+      <c r="K139" s="89">
+        <v>0</v>
+      </c>
+      <c r="L139" s="90">
+        <v>0</v>
+      </c>
+      <c r="M139" s="90">
+        <v>0</v>
+      </c>
+      <c r="N139" s="91">
+        <v>0</v>
+      </c>
+      <c r="O139" s="91">
+        <v>0</v>
+      </c>
+      <c r="P139" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="91">
+        <v>0</v>
+      </c>
+      <c r="R139" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
+      <c r="A140" s="80"/>
+      <c r="B140" s="81"/>
+      <c r="C140" s="82"/>
+      <c r="D140" s="83">
+        <v>0</v>
+      </c>
+      <c r="E140" s="84">
+        <v>0</v>
+      </c>
+      <c r="F140" s="85">
+        <v>0</v>
+      </c>
+      <c r="G140" s="86">
+        <v>0</v>
+      </c>
+      <c r="H140" s="87">
+        <v>0</v>
+      </c>
+      <c r="I140" s="88">
+        <v>0</v>
+      </c>
+      <c r="J140" s="89">
+        <v>0</v>
+      </c>
+      <c r="K140" s="89">
+        <v>0</v>
+      </c>
+      <c r="L140" s="90">
+        <v>0</v>
+      </c>
+      <c r="M140" s="90">
+        <v>0</v>
+      </c>
+      <c r="N140" s="91">
+        <v>0</v>
+      </c>
+      <c r="O140" s="91">
+        <v>0</v>
+      </c>
+      <c r="P140" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="91">
+        <v>0</v>
+      </c>
+      <c r="R140" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
+      <c r="A141" s="80"/>
+      <c r="B141" s="81"/>
+      <c r="C141" s="82"/>
+      <c r="D141" s="83">
+        <v>0</v>
+      </c>
+      <c r="E141" s="84">
+        <v>0</v>
+      </c>
+      <c r="F141" s="85">
+        <v>0</v>
+      </c>
+      <c r="G141" s="86">
+        <v>0</v>
+      </c>
+      <c r="H141" s="87">
+        <v>0</v>
+      </c>
+      <c r="I141" s="88">
+        <v>0</v>
+      </c>
+      <c r="J141" s="89">
+        <v>0</v>
+      </c>
+      <c r="K141" s="89">
+        <v>0</v>
+      </c>
+      <c r="L141" s="90">
+        <v>0</v>
+      </c>
+      <c r="M141" s="90">
+        <v>0</v>
+      </c>
+      <c r="N141" s="91">
+        <v>0</v>
+      </c>
+      <c r="O141" s="91">
+        <v>0</v>
+      </c>
+      <c r="P141" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="91">
+        <v>0</v>
+      </c>
+      <c r="R141" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
+      <c r="A142" s="80"/>
+      <c r="B142" s="81"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="83">
+        <v>0</v>
+      </c>
+      <c r="E142" s="84">
+        <v>0</v>
+      </c>
+      <c r="F142" s="85">
+        <v>0</v>
+      </c>
+      <c r="G142" s="86">
+        <v>0</v>
+      </c>
+      <c r="H142" s="87">
+        <v>0</v>
+      </c>
+      <c r="I142" s="88">
+        <v>0</v>
+      </c>
+      <c r="J142" s="89">
+        <v>0</v>
+      </c>
+      <c r="K142" s="89">
+        <v>0</v>
+      </c>
+      <c r="L142" s="90">
+        <v>0</v>
+      </c>
+      <c r="M142" s="90">
+        <v>0</v>
+      </c>
+      <c r="N142" s="91">
+        <v>0</v>
+      </c>
+      <c r="O142" s="91">
+        <v>0</v>
+      </c>
+      <c r="P142" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="91">
+        <v>0</v>
+      </c>
+      <c r="R142" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
+      <c r="A143" s="80"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="83">
+        <v>0</v>
+      </c>
+      <c r="E143" s="84">
+        <v>0</v>
+      </c>
+      <c r="F143" s="85">
+        <v>0</v>
+      </c>
+      <c r="G143" s="86">
+        <v>0</v>
+      </c>
+      <c r="H143" s="87">
+        <v>0</v>
+      </c>
+      <c r="I143" s="88">
+        <v>0</v>
+      </c>
+      <c r="J143" s="89">
+        <v>0</v>
+      </c>
+      <c r="K143" s="89">
+        <v>0</v>
+      </c>
+      <c r="L143" s="90">
+        <v>0</v>
+      </c>
+      <c r="M143" s="90">
+        <v>0</v>
+      </c>
+      <c r="N143" s="91">
+        <v>0</v>
+      </c>
+      <c r="O143" s="91">
+        <v>0</v>
+      </c>
+      <c r="P143" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="91">
+        <v>0</v>
+      </c>
+      <c r="R143" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
+      <c r="A144" s="80"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="82"/>
+      <c r="D144" s="83">
+        <v>0</v>
+      </c>
+      <c r="E144" s="84">
+        <v>0</v>
+      </c>
+      <c r="F144" s="85">
+        <v>0</v>
+      </c>
+      <c r="G144" s="86">
+        <v>0</v>
+      </c>
+      <c r="H144" s="87">
+        <v>0</v>
+      </c>
+      <c r="I144" s="88">
+        <v>0</v>
+      </c>
+      <c r="J144" s="89">
+        <v>0</v>
+      </c>
+      <c r="K144" s="89">
+        <v>0</v>
+      </c>
+      <c r="L144" s="90">
+        <v>0</v>
+      </c>
+      <c r="M144" s="90">
+        <v>0</v>
+      </c>
+      <c r="N144" s="91">
+        <v>0</v>
+      </c>
+      <c r="O144" s="91">
+        <v>0</v>
+      </c>
+      <c r="P144" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="91">
+        <v>0</v>
+      </c>
+      <c r="R144" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
+      <c r="A145" s="80"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="82"/>
+      <c r="D145" s="83">
+        <v>0</v>
+      </c>
+      <c r="E145" s="84">
+        <v>0</v>
+      </c>
+      <c r="F145" s="85">
+        <v>0</v>
+      </c>
+      <c r="G145" s="86">
+        <v>0</v>
+      </c>
+      <c r="H145" s="87">
+        <v>0</v>
+      </c>
+      <c r="I145" s="88">
+        <v>0</v>
+      </c>
+      <c r="J145" s="89">
+        <v>0</v>
+      </c>
+      <c r="K145" s="89">
+        <v>0</v>
+      </c>
+      <c r="L145" s="90">
+        <v>0</v>
+      </c>
+      <c r="M145" s="90">
+        <v>0</v>
+      </c>
+      <c r="N145" s="91">
+        <v>0</v>
+      </c>
+      <c r="O145" s="91">
+        <v>0</v>
+      </c>
+      <c r="P145" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="91">
+        <v>0</v>
+      </c>
+      <c r="R145" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
+      <c r="A146" s="80"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="82"/>
+      <c r="D146" s="83">
+        <v>0</v>
+      </c>
+      <c r="E146" s="84">
+        <v>0</v>
+      </c>
+      <c r="F146" s="85">
+        <v>0</v>
+      </c>
+      <c r="G146" s="86">
+        <v>0</v>
+      </c>
+      <c r="H146" s="87">
+        <v>0</v>
+      </c>
+      <c r="I146" s="88">
+        <v>0</v>
+      </c>
+      <c r="J146" s="89">
+        <v>0</v>
+      </c>
+      <c r="K146" s="89">
+        <v>0</v>
+      </c>
+      <c r="L146" s="90">
+        <v>0</v>
+      </c>
+      <c r="M146" s="90">
+        <v>0</v>
+      </c>
+      <c r="N146" s="91">
+        <v>0</v>
+      </c>
+      <c r="O146" s="91">
+        <v>0</v>
+      </c>
+      <c r="P146" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="91">
+        <v>0</v>
+      </c>
+      <c r="R146" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
+      <c r="A147" s="80"/>
+      <c r="B147" s="81"/>
+      <c r="C147" s="82"/>
+      <c r="D147" s="83">
+        <v>0</v>
+      </c>
+      <c r="E147" s="84">
+        <v>0</v>
+      </c>
+      <c r="F147" s="85">
+        <v>0</v>
+      </c>
+      <c r="G147" s="86">
+        <v>0</v>
+      </c>
+      <c r="H147" s="87">
+        <v>0</v>
+      </c>
+      <c r="I147" s="88">
+        <v>0</v>
+      </c>
+      <c r="J147" s="89">
+        <v>0</v>
+      </c>
+      <c r="K147" s="89">
+        <v>0</v>
+      </c>
+      <c r="L147" s="90">
+        <v>0</v>
+      </c>
+      <c r="M147" s="90">
+        <v>0</v>
+      </c>
+      <c r="N147" s="91">
+        <v>0</v>
+      </c>
+      <c r="O147" s="91">
+        <v>0</v>
+      </c>
+      <c r="P147" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="91">
+        <v>0</v>
+      </c>
+      <c r="R147" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
+      <c r="A148" s="80"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="82"/>
+      <c r="D148" s="83">
+        <v>0</v>
+      </c>
+      <c r="E148" s="84">
+        <v>0</v>
+      </c>
+      <c r="F148" s="85">
+        <v>0</v>
+      </c>
+      <c r="G148" s="86">
+        <v>0</v>
+      </c>
+      <c r="H148" s="87">
+        <v>0</v>
+      </c>
+      <c r="I148" s="88">
+        <v>0</v>
+      </c>
+      <c r="J148" s="89">
+        <v>0</v>
+      </c>
+      <c r="K148" s="89">
+        <v>0</v>
+      </c>
+      <c r="L148" s="90">
+        <v>0</v>
+      </c>
+      <c r="M148" s="90">
+        <v>0</v>
+      </c>
+      <c r="N148" s="91">
+        <v>0</v>
+      </c>
+      <c r="O148" s="91">
+        <v>0</v>
+      </c>
+      <c r="P148" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="91">
+        <v>0</v>
+      </c>
+      <c r="R148" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
+      <c r="A149" s="80"/>
+      <c r="B149" s="81"/>
+      <c r="C149" s="82"/>
+      <c r="D149" s="83">
+        <v>0</v>
+      </c>
+      <c r="E149" s="84">
+        <v>0</v>
+      </c>
+      <c r="F149" s="85">
+        <v>0</v>
+      </c>
+      <c r="G149" s="86">
+        <v>0</v>
+      </c>
+      <c r="H149" s="87">
+        <v>0</v>
+      </c>
+      <c r="I149" s="88">
+        <v>0</v>
+      </c>
+      <c r="J149" s="89">
+        <v>0</v>
+      </c>
+      <c r="K149" s="89">
+        <v>0</v>
+      </c>
+      <c r="L149" s="90">
+        <v>0</v>
+      </c>
+      <c r="M149" s="90">
+        <v>0</v>
+      </c>
+      <c r="N149" s="91">
+        <v>0</v>
+      </c>
+      <c r="O149" s="91">
+        <v>0</v>
+      </c>
+      <c r="P149" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="91">
+        <v>0</v>
+      </c>
+      <c r="R149" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
+      <c r="A150" s="80"/>
+      <c r="B150" s="81"/>
+      <c r="C150" s="82"/>
+      <c r="D150" s="83">
+        <v>0</v>
+      </c>
+      <c r="E150" s="84">
+        <v>0</v>
+      </c>
+      <c r="F150" s="85">
+        <v>0</v>
+      </c>
+      <c r="G150" s="86">
+        <v>0</v>
+      </c>
+      <c r="H150" s="87">
+        <v>0</v>
+      </c>
+      <c r="I150" s="88">
+        <v>0</v>
+      </c>
+      <c r="J150" s="89">
+        <v>0</v>
+      </c>
+      <c r="K150" s="89">
+        <v>0</v>
+      </c>
+      <c r="L150" s="90">
+        <v>0</v>
+      </c>
+      <c r="M150" s="90">
+        <v>0</v>
+      </c>
+      <c r="N150" s="91">
+        <v>0</v>
+      </c>
+      <c r="O150" s="91">
+        <v>0</v>
+      </c>
+      <c r="P150" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="91">
+        <v>0</v>
+      </c>
+      <c r="R150" s="92">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D4:Q104">
+  <conditionalFormatting sqref="D4:Q150">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H104">
+  <conditionalFormatting sqref="G4:H150">
     <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/src/main/resources/TestSpec.xlsx
+++ b/src/main/resources/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2523753-5397-5148-8282-02034E22D39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275A2BF-BF01-624F-9AC8-DE969C079750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="39920" windowHeight="36460" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -279,6 +279,14 @@
   <si>
     <t>A+CA+M</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>NLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1748,7 +1756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F45A1-E8E7-6045-B22A-269DB8A60478}">
-  <dimension ref="A3:L3"/>
+  <dimension ref="A3:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1759,20 +1767,21 @@
   <cols>
     <col min="1" max="1" width="5.5703125" style="95" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="95" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="95" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="95" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="95" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="95" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="95" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="95" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="95" customWidth="1"/>
-    <col min="12" max="12" width="43" style="95" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="95"/>
+    <col min="3" max="4" width="10.140625" style="95" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="95" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="95" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="95" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" style="95" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="95" customWidth="1"/>
+    <col min="13" max="13" width="43" style="95" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="95" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="95"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="95" t="s">
         <v>47</v>
       </c>
@@ -1783,31 +1792,37 @@
         <v>49</v>
       </c>
       <c r="D3" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="F3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="G3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="I3" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="J3" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="K3" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="95" t="s">
+      <c r="L3" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="M3" s="95" t="s">
         <v>56</v>
+      </c>
+      <c r="N3" s="95" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -9326,6 +9341,10 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="I2" s="20"/>
+      <c r="J2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="28"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -9341,10 +9360,10 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="28"/>
+      <c r="J3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -9887,6 +9906,10 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="I2" s="20"/>
+      <c r="J2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="28"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
@@ -9902,10 +9925,10 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="28"/>
+      <c r="J3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>

--- a/src/main/resources/TestSpec.xlsx
+++ b/src/main/resources/TestSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275A2BF-BF01-624F-9AC8-DE969C079750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288BF96A-480C-E24C-A378-3288C982029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="39920" windowHeight="36460" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -286,6 +286,10 @@
   </si>
   <si>
     <t>mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1756,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18F45A1-E8E7-6045-B22A-269DB8A60478}">
-  <dimension ref="A3:N3"/>
+  <dimension ref="A3:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1769,19 +1773,20 @@
     <col min="2" max="2" width="23.7109375" style="95" customWidth="1"/>
     <col min="3" max="4" width="10.140625" style="95" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="95" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="95" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="95" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="95" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="95" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="95" customWidth="1"/>
-    <col min="13" max="13" width="43" style="95" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="95" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="95"/>
+    <col min="6" max="6" width="5.28515625" style="95" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="95" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="95" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375" style="95" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="95" customWidth="1"/>
+    <col min="14" max="14" width="43" style="95" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="95" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="95"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="95" t="s">
         <v>47</v>
       </c>
@@ -1798,30 +1803,33 @@
         <v>50</v>
       </c>
       <c r="F3" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="I3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="J3" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="K3" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="95" t="s">
+      <c r="L3" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="M3" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="95" t="s">
+      <c r="N3" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="95" t="s">
+      <c r="O3" s="95" t="s">
         <v>62</v>
       </c>
     </row>

--- a/src/main/resources/TestSpec.xlsx
+++ b/src/main/resources/TestSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wave1008/github/ldi-github/shirates-core/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571D07F-3568-EF49-82B4-806C81B4ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F41EC5C-58FC-6C48-9024-AAB2AAFDDC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="880" windowWidth="39920" windowHeight="36460" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
+    <workbookView xWindow="21520" yWindow="2800" windowWidth="39920" windowHeight="36460" activeTab="1" xr2:uid="{7D8110C6-6013-EE40-AEFD-DB3E77751E94}"/>
   </bookViews>
   <sheets>
     <sheet name="CommandList" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>result</t>
     <phoneticPr fontId="5"/>
@@ -297,6 +297,14 @@
     <t>N/A</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A/CA</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +315,7 @@
     <numFmt numFmtId="177" formatCode="m/d;@"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -429,6 +437,12 @@
       <color theme="0"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -854,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,6 +1196,15 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,7 +1213,49 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{C40AA10B-FA57-1748-8D8E-3E12991DC054}"/>
   </cellStyles>
-  <dxfs count="136">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1222,7 +1287,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
+          <bgColor rgb="FFA0D8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0D8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE82EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1236,7 +1329,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1250,7 +1350,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFA0D8EF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1264,7 +1364,85 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFA0D8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEE82EE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1327,21 +1505,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFA0D8EF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1404,13 +1575,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFA0D8EF"/>
         </patternFill>
       </fill>
@@ -1425,84 +1589,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1572,6 +1659,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA0D8EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1579,7 +1680,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFA0D8EF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1627,512 +1728,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBDD7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE82EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA0D8EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -2147,6 +1742,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA0D8EF"/>
       <color rgb="FFE7E7FF"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFBDD7EE"/>
@@ -2559,8 +2155,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22">
-      <c r="A1" s="125"/>
-      <c r="B1" s="125"/>
+      <c r="A1" s="128"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="13" t="s">
         <v>39</v>
       </c>
@@ -2585,7 +2181,7 @@
       <c r="I3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="127" t="s">
         <v>58</v>
       </c>
       <c r="K3" s="61" t="s">
@@ -10125,12 +9721,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D4:R150">
-    <cfRule type="cellIs" dxfId="135" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H150">
-    <cfRule type="cellIs" dxfId="134" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10172,9 +9768,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="22">
-      <c r="A1" s="125"/>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="A1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="87"/>
@@ -10202,14 +9798,15 @@
         <v>20</v>
       </c>
       <c r="H2" s="27"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="115" t="s">
+      <c r="I2" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="27"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="20"/>
@@ -10225,14 +9822,15 @@
         <v>3</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="33"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="20"/>
@@ -10248,14 +9846,11 @@
         <v>8</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="20"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="20"/>
@@ -10271,14 +9866,15 @@
         <v>4</v>
       </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="27"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="20"/>
@@ -10292,14 +9888,15 @@
         <v>1</v>
       </c>
       <c r="H6" s="33"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="116" t="s">
+      <c r="I6" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="33"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="20"/>
@@ -10309,13 +9906,13 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="20"/>
@@ -10629,141 +10226,146 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="101" priority="161">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="162">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="100" priority="122" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="71" priority="123" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="121" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="70" priority="122" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G19">
-    <cfRule type="containsText" dxfId="98" priority="135" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="69" priority="136" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="134" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="68" priority="135" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="96" priority="159" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="160" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="95" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="124" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="65" priority="147" operator="equal">
       <formula>"手動"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I19">
-    <cfRule type="cellIs" dxfId="94" priority="146" operator="equal">
-      <formula>"手動"</formula>
+  <conditionalFormatting sqref="I14:I19">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10 J12:J13">
-    <cfRule type="containsText" dxfId="93" priority="120" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="cellIs" dxfId="63" priority="112" stopIfTrue="1" operator="equal">
+      <formula>"未実施"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="121" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="119" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="61" priority="120" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="118" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="60" priority="119" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="118" stopIfTrue="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="117" stopIfTrue="1" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="116" stopIfTrue="1" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="115" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="114" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="113" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="111" stopIfTrue="1" operator="equal">
-      <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="83" priority="109" stopIfTrue="1" operator="containsText" text="SKIP">
+    <cfRule type="containsText" dxfId="53" priority="109" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="110" stopIfTrue="1" operator="containsText" text="SKIP">
       <formula>NOT(ISERROR(SEARCH("SKIP",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="108" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J11)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="111" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="108" stopIfTrue="1" operator="equal">
       <formula>"DELETED"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="110" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="107" stopIfTrue="1" operator="equal">
       <formula>"EXCLUDED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="106" stopIfTrue="1" operator="equal">
       <formula>"SUSPENDED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="105" stopIfTrue="1" operator="equal">
       <formula>"COND_AUTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="104" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="103" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="102" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="101" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J19">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"DELETED"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="12" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="11" stopIfTrue="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",J14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"EXCLUDED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"SUSPENDED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"COND_AUTO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"COND_AUTO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"SUSPENDED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"EXCLUDED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"DELETED"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="32" priority="10" stopIfTrue="1" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -10812,9 +10414,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="22">
-      <c r="A1" s="125"/>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="A1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="87"/>
@@ -10842,14 +10444,15 @@
         <v>20</v>
       </c>
       <c r="H2" s="27"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="115" t="s">
+      <c r="I2" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="27"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="20"/>
@@ -10865,14 +10468,15 @@
         <v>3</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="33"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="20"/>
@@ -10888,14 +10492,11 @@
         <v>8</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="20"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="20"/>
@@ -10911,14 +10512,15 @@
         <v>4</v>
       </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="27"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="20"/>
@@ -10932,14 +10534,15 @@
         <v>1</v>
       </c>
       <c r="H6" s="33"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="119" t="s">
+      <c r="I6" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="33"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="20"/>
@@ -10949,13 +10552,13 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="20"/>
@@ -34039,96 +33642,96 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="133" priority="119">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="120">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G1009">
-    <cfRule type="containsText" dxfId="132" priority="80" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="79" operator="containsText" text="iOS">
+    <cfRule type="containsText" dxfId="29" priority="80" operator="containsText" text="iOS">
       <formula>NOT(ISERROR(SEARCH("iOS",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="cellIs" dxfId="130" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="68" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I1009">
-    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
-      <formula>"手動"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="128" priority="78" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+    <cfRule type="cellIs" dxfId="26" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"MANUAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"SUSPENDED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"EXCLUDED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="76" stopIfTrue="1" operator="equal">
+      <formula>"DELETED"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="77" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="78" stopIfTrue="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="79" stopIfTrue="1" operator="containsText" text="NOTIMPL">
       <formula>NOT(ISERROR(SEARCH("NOTIMPL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="77" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",J10)))</formula>
+    <cfRule type="cellIs" dxfId="17" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="76" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J10)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J1009">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"COND_AUTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"SUSPENDED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"EXCLUDED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
       <formula>"DELETED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="74" stopIfTrue="1" operator="equal">
-      <formula>"EXCLUDED"</formula>
+    <cfRule type="containsText" dxfId="12" priority="10" stopIfTrue="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="39" stopIfTrue="1" operator="equal">
-      <formula>"SUSPENDED"</formula>
+    <cfRule type="containsText" dxfId="11" priority="11" stopIfTrue="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="containsText" dxfId="10" priority="12" stopIfTrue="1" operator="containsText" text="NOTIMPL">
+      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
       <formula>"MANUAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J1009">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"MANUAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"COND_AUTO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"SUSPENDED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"EXCLUDED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"DELETED"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" stopIfTrue="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" stopIfTrue="1" operator="containsText" text="SKIP">
-      <formula>NOT(ISERROR(SEARCH("SKIP",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" stopIfTrue="1" operator="containsText" text="NOTIMPL">
-      <formula>NOT(ISERROR(SEARCH("NOTIMPL",J11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G1009" xr:uid="{FDB52D66-902F-924D-AD1C-1D531F515F41}">
       <formula1>"iOS,Android"</formula1>
     </dataValidation>
@@ -34249,22 +33852,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:A13">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"削除予定"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"実施対象外"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"保留"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"未実施"</formula>
     </cfRule>
   </conditionalFormatting>
